--- a/PPA2/ExcelTemplate/PPA_Template_ArterialExp.xlsx
+++ b/PPA2/ExcelTemplate/PPA_Template_ArterialExp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\ProjectLevelPerformanceAssessment\PPAv2\PPA2_0_code\PPA2\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9054C9-4B2A-4023-BEF4-DAC380FD3BE5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A870345B-FFE5-475E-A449-CB6C35652B95}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="781" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="781" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="291">
   <si>
     <t>data_item</t>
   </si>
@@ -732,22 +732,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Congestion indicator 2: Travel Time Reliability</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
     </r>
   </si>
   <si>
@@ -989,6 +973,12 @@
       <t xml:space="preserve"> percentile speed between the hours of 8pm-6am. It is supposed to represent the speed when there is no traffic congestion.
 Congested speed is the average speed during the slowest four hours of a typical weekday and for most project segments is during the AM and PM peak periods.</t>
     </r>
+  </si>
+  <si>
+    <t>Congestion indicator 2: Travel Time Reliability*</t>
+  </si>
+  <si>
+    <t>*If no data appear for speed or reliability charts, it means no data were available for the project.</t>
   </si>
 </sst>
 </file>
@@ -1713,7 +1703,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1803,7 +1793,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1815,6 +1804,23 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1833,23 +1839,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -6023,8 +6014,124 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lookup_helper!$P$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PM peak TT reliability</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>lookup_helper!$Q$13:$R$13</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>EB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>lookup_helper!$Q$16:$R$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.323087321541778</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.10910333948567</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2F3E-4412-8F1B-4BE757E31B71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>lookup_helper!$P$15</c:f>
@@ -6135,122 +6242,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2F3E-4412-8F1B-4BE757E31B71}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>lookup_helper!$P$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PM peak TT reliability</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>lookup_helper!$Q$13:$R$13</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>EB</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>WB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>lookup_helper!$Q$16:$R$16</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1.323087321541778</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.10910333948567</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2F3E-4412-8F1B-4BE757E31B71}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -17224,13 +17215,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>176211</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>400049</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17974,13 +17965,13 @@
         <v>116</v>
       </c>
       <c r="D1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E1" t="s">
         <v>117</v>
       </c>
       <c r="F1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G1" t="s">
         <v>118</v>
@@ -18028,7 +18019,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -19160,35 +19151,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A06C26-04B9-49D2-98B1-15755B05F762}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
-        <v>269</v>
-      </c>
-    </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46">
+      <c r="A4" s="45">
         <f>VLOOKUP("Project Pavement Condition Index (PCI)",lookup_helper!$B:$D,3,FALSE)</f>
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
-        <v>270</v>
+      <c r="A6" s="46" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58">
+      <c r="A7" s="51">
         <f>VLOOKUP("Project AADT",lookup_helper!$B:$D,3,FALSE)</f>
         <v>60000</v>
       </c>
@@ -19203,7 +19194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC68989-782F-4C16-9EA8-F79FF49CA3B0}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -19218,96 +19209,96 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
-        <v>277</v>
+      <c r="A2" s="46" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="58">
+      <c r="A3" s="51">
         <f>lookup_helper!D95*lookup_helper!D72</f>
         <v>4050</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
-        <v>272</v>
+      <c r="A6" s="46" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B7" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>242</v>
-      </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="59">
+      <c r="A8" s="52">
         <f>VLOOKUP("Percent of project area residents within an EJ community",lookup_helper!$B:$D,3,FALSE)</f>
         <v>0.69863722615145762</v>
       </c>
-      <c r="B8" s="59">
+      <c r="B8" s="52">
         <f>VLOOKUP("Percent of project area residents within an EJ community",lookup_helper!$B:$F,5,FALSE)</f>
         <v>0.34730153421679688</v>
       </c>
-      <c r="C8" s="59">
+      <c r="C8" s="52">
         <f>VLOOKUP("Percent of project area residents within an EJ community",lookup_helper!$B:$G,6,FALSE)</f>
         <v>0.3746385676273582</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="46" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
+    <row r="14" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="53" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="60" t="s">
-        <v>276</v>
-      </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
     </row>
     <row r="16" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
     </row>
     <row r="17" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
     </row>
     <row r="18" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19320,8 +19311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57897DFD-9194-4D6D-AE68-E488992A8706}">
   <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="P95" sqref="P95:R113"/>
     </sheetView>
@@ -19344,13 +19335,13 @@
         <v>116</v>
       </c>
       <c r="F1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G1" t="s">
         <v>117</v>
       </c>
       <c r="H1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I1" t="s">
         <v>118</v>
@@ -21556,7 +21547,7 @@
         <v>33</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C60" t="s">
         <v>213</v>
@@ -21626,7 +21617,7 @@
         <v>63</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C62" t="s">
         <v>213</v>
@@ -22816,12 +22807,12 @@
         <v>71</v>
       </c>
       <c r="B96" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C96" t="s">
         <v>218</v>
       </c>
-      <c r="D96" s="63">
+      <c r="D96" s="56">
         <f>VLOOKUP($A96,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>1013.770763052209</v>
       </c>
@@ -22846,7 +22837,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P96" s="29"/>
     </row>
@@ -22855,12 +22846,12 @@
         <v>72</v>
       </c>
       <c r="B97" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C97" t="s">
         <v>218</v>
       </c>
-      <c r="D97" s="63">
+      <c r="D97" s="56">
         <f>VLOOKUP($A97,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>2709.1952208835341</v>
       </c>
@@ -22885,7 +22876,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P97" s="29"/>
     </row>
@@ -22894,12 +22885,12 @@
         <v>73</v>
       </c>
       <c r="B98" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C98" t="s">
         <v>218</v>
       </c>
-      <c r="D98" s="63">
+      <c r="D98" s="56">
         <f>VLOOKUP($A98,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>45512.183253012037</v>
       </c>
@@ -22924,7 +22915,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P98" s="29"/>
     </row>
@@ -22933,12 +22924,12 @@
         <v>74</v>
       </c>
       <c r="B99" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C99" t="s">
         <v>218</v>
       </c>
-      <c r="D99" s="63">
+      <c r="D99" s="56">
         <f>VLOOKUP($A99,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>6491.7790361445777</v>
       </c>
@@ -22963,7 +22954,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P99" s="29"/>
     </row>
@@ -22972,12 +22963,12 @@
         <v>75</v>
       </c>
       <c r="B100" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C100" t="s">
         <v>218</v>
       </c>
-      <c r="D100" s="63">
+      <c r="D100" s="56">
         <f>VLOOKUP($A100,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>272.66024096385541</v>
       </c>
@@ -23002,7 +22993,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P100" s="29"/>
     </row>
@@ -23011,12 +23002,12 @@
         <v>76</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C101" t="s">
         <v>218</v>
       </c>
-      <c r="D101" s="63">
+      <c r="D101" s="56">
         <f>VLOOKUP($A101,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>795.25333333333333</v>
       </c>
@@ -23041,7 +23032,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P101" s="29"/>
     </row>
@@ -23050,12 +23041,12 @@
         <v>77</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C102" t="s">
         <v>218</v>
       </c>
-      <c r="D102" s="63">
+      <c r="D102" s="56">
         <f>VLOOKUP($A102,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>12386.82514056225</v>
       </c>
@@ -23080,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P102" s="29"/>
     </row>
@@ -23089,12 +23080,12 @@
         <v>78</v>
       </c>
       <c r="B103" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C103" t="s">
         <v>218</v>
       </c>
-      <c r="D103" s="63">
+      <c r="D103" s="56">
         <f>VLOOKUP($A103,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>1514.9185542168671</v>
       </c>
@@ -23119,7 +23110,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="P103" s="29"/>
     </row>
@@ -23128,12 +23119,12 @@
         <v>79</v>
       </c>
       <c r="B104" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C104" t="s">
         <v>218</v>
       </c>
-      <c r="D104" s="63">
+      <c r="D104" s="56">
         <f>VLOOKUP($A104,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>1.2211646586345379</v>
       </c>
@@ -23158,7 +23149,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P104" s="29"/>
     </row>
@@ -23167,12 +23158,12 @@
         <v>80</v>
       </c>
       <c r="B105" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C105" t="s">
         <v>218</v>
       </c>
-      <c r="D105" s="63">
+      <c r="D105" s="56">
         <f>VLOOKUP($A105,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>5.2928514056224891</v>
       </c>
@@ -23197,7 +23188,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P105" s="29"/>
     </row>
@@ -23206,12 +23197,12 @@
         <v>81</v>
       </c>
       <c r="B106" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C106" t="s">
         <v>218</v>
       </c>
-      <c r="D106" s="63">
+      <c r="D106" s="56">
         <f>VLOOKUP($A106,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>94.170281124498004</v>
       </c>
@@ -23236,7 +23227,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P106" s="29"/>
     </row>
@@ -23245,12 +23236,12 @@
         <v>82</v>
       </c>
       <c r="B107" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C107" t="s">
         <v>218</v>
       </c>
-      <c r="D107" s="63">
+      <c r="D107" s="56">
         <f>VLOOKUP($A107,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>10.89180722891566</v>
       </c>
@@ -23275,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P107" s="29"/>
     </row>
@@ -23284,12 +23275,12 @@
         <v>83</v>
       </c>
       <c r="B108" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C108" t="s">
         <v>218</v>
       </c>
-      <c r="D108" s="63">
+      <c r="D108" s="56">
         <f>VLOOKUP($A108,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>7.5514457831325306</v>
       </c>
@@ -23314,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P108" s="29"/>
     </row>
@@ -23323,12 +23314,12 @@
         <v>84</v>
       </c>
       <c r="B109" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C109" t="s">
         <v>218</v>
       </c>
-      <c r="D109" s="63">
+      <c r="D109" s="56">
         <f>VLOOKUP($A109,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>19.925100401606429</v>
       </c>
@@ -23353,7 +23344,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P109" s="29"/>
     </row>
@@ -23362,12 +23353,12 @@
         <v>85</v>
       </c>
       <c r="B110" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C110" t="s">
         <v>218</v>
       </c>
-      <c r="D110" s="63">
+      <c r="D110" s="56">
         <f>VLOOKUP($A110,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>238.27309236947789</v>
       </c>
@@ -23392,7 +23383,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P110" s="29"/>
     </row>
@@ -23401,12 +23392,12 @@
         <v>86</v>
       </c>
       <c r="B111" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C111" t="s">
         <v>218</v>
       </c>
-      <c r="D111" s="63">
+      <c r="D111" s="56">
         <f>VLOOKUP($A111,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>51.080883534136547</v>
       </c>
@@ -23431,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P111" s="29"/>
     </row>
@@ -23612,10 +23603,10 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>265</v>
+      </c>
+      <c r="B117" s="29" t="s">
         <v>266</v>
-      </c>
-      <c r="B117" s="29" t="s">
-        <v>267</v>
       </c>
       <c r="C117" t="s">
         <v>206</v>
@@ -23692,8 +23683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68FC8CB5-C6A7-44CA-A479-35B28693DBAA}">
   <dimension ref="A2:I45"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23702,40 +23693,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="str">
+      <c r="A2" s="58" t="str">
         <f>"Project Performance Assessment Report: "&amp;import!$B$2</f>
         <v>Project Performance Assessment Report: test_project_YubaCity</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -23748,73 +23739,73 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
       <c r="E31" s="32" t="str">
         <f>VLOOKUP(A31,lookup_helper!$B$112:$D$118,3,FALSE)</f>
         <v>test_project_YubaCity</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
       <c r="E32" s="32" t="str">
         <f>VLOOKUP(A32,lookup_helper!$B$112:$D$118,3,FALSE)</f>
         <v>Freeway</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
       <c r="E33" s="33">
         <f>VLOOKUP(A33,lookup_helper!$B$112:$D$118,3,FALSE)</f>
         <v>60000</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
       <c r="E34" s="33">
         <f>VLOOKUP(A34,lookup_helper!$B$112:$D$118,3,FALSE)</f>
         <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="51" t="s">
+      <c r="A35" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
       <c r="E35" s="33">
         <f>VLOOKUP(A35,lookup_helper!$B$112:$D$118,3,FALSE)</f>
         <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="51" t="s">
-        <v>267</v>
-      </c>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="57">
+      <c r="A36" s="57" t="s">
+        <v>266</v>
+      </c>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="50">
         <f>VLOOKUP(A36,lookup_helper!$B$112:$D$118,3,FALSE)</f>
         <v>1</v>
       </c>
@@ -23824,12 +23815,12 @@
       <c r="I36" s="31"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="51" t="s">
+      <c r="A37" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
       <c r="E37" s="32" t="str">
         <f>VLOOKUP(A37,lookup_helper!$B$112:$D$118,3,FALSE)</f>
         <v>Small-Town Established Communities</v>
@@ -23960,7 +23951,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -23969,46 +23960,46 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="53" t="s">
-        <v>288</v>
-      </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
+      <c r="A39" s="59" t="s">
+        <v>287</v>
+      </c>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="53"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
+      <c r="A41" s="59"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
     </row>
     <row r="42" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="53"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
+      <c r="A42" s="59"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -24022,10 +24013,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6214DCB8-A904-4048-8891-634DB5071E9F}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24065,34 +24056,39 @@
       <c r="A10" s="13"/>
     </row>
     <row r="19" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="59" t="s">
+        <v>288</v>
+      </c>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
-        <v>225</v>
-      </c>
+      <c r="A22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
+      <c r="A23" s="14"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="13"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="48" t="s">
+        <v>290</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -24106,10 +24102,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87207DCC-1888-4FF1-B645-7715A9482FCA}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:C50"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24121,32 +24117,32 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
-        <v>229</v>
-      </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="C5" s="36" t="s">
         <v>241</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24169,34 +24165,34 @@
       <c r="C7" s="40"/>
     </row>
     <row r="9" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
-        <v>230</v>
-      </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
+      <c r="A9" s="60" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
       <c r="I9" s="37"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55" t="s">
-        <v>243</v>
-      </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
+      <c r="A11" s="61" t="s">
+        <v>242</v>
+      </c>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
     </row>
     <row r="12" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="C12" s="36" t="s">
         <v>241</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24220,17 +24216,17 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
@@ -24243,13 +24239,13 @@
     </row>
     <row r="49" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="B49" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="B49" s="36" t="s">
+      <c r="C49" s="36" t="s">
         <v>241</v>
-      </c>
-      <c r="C49" s="36" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24266,14 +24262,14 @@
         <v>7.332683167880813E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="30" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>235</v>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -24292,24 +24288,24 @@
   <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -24357,64 +24353,64 @@
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="45">
+    <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="30" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="63">
         <f>lookup_helper!E81-lookup_helper!D81</f>
         <v>992.65999999999894</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="62" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="62"/>
     </row>
     <row r="50" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="34" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="30" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="30" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="46">
+    <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="64">
         <f>lookup_helper!D55</f>
         <v>657</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -24432,7 +24428,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="A26:C26"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24448,24 +24444,24 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
-        <v>254</v>
-      </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="A2" s="62" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="48">
+      <c r="A3" s="47">
         <f>VLOOKUP(lookup_helper!B56,lookup_helper!$B:$D,3,FALSE)</f>
         <v>1</v>
       </c>
@@ -24490,31 +24486,31 @@
       <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
-        <v>253</v>
-      </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
+      <c r="A5" s="62" t="s">
+        <v>252</v>
+      </c>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24524,13 +24520,13 @@
     </row>
     <row r="25" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="B25" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="C25" s="36" t="s">
         <v>241</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24549,7 +24545,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -24579,83 +24575,83 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="29" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="29" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
-        <v>260</v>
-      </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="46">
+      <c r="A5" s="45">
         <f>VLOOKUP(lookup_helper!B86,lookup_helper!$B:$D,3,FALSE)</f>
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="30"/>
     </row>
     <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="48" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="B32" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="C32" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="C32" s="36" t="s">
-        <v>242</v>
-      </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="50">
+      <c r="A33" s="49">
         <f>VLOOKUP($A31,lookup_helper!$B:$I,MATCH("projval_2016",lookup_helper!$1:$1,0)-1,FALSE)</f>
         <v>41.285465803940781</v>
       </c>
-      <c r="B33" s="50">
+      <c r="B33" s="49">
         <f>VLOOKUP($A31,lookup_helper!$B:$I,MATCH("CommunityType_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
         <v>61.135362311155802</v>
       </c>
-      <c r="C33" s="50">
+      <c r="C33" s="49">
         <f>VLOOKUP($A31,lookup_helper!$B:$I,MATCH("REGION_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
         <v>63.369834818958772</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/PPA2/ExcelTemplate/PPA_Template_ArterialExp.xlsx
+++ b/PPA2/ExcelTemplate/PPA_Template_ArterialExp.xlsx
@@ -2,35 +2,46 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\ProjectLevelPerformanceAssessment\PPAv2\PPA2_0_code\PPA2\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A870345B-FFE5-475E-A449-CB6C35652B95}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E70CCD0-CB8F-4897-8787-6B4633F51210}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="781" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="781" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
     <sheet name="lookup_helper" sheetId="5" r:id="rId2"/>
-    <sheet name="TitlePg" sheetId="4" r:id="rId3"/>
-    <sheet name="ReduceVMT" sheetId="2" r:id="rId4"/>
-    <sheet name="ReduceCongestion" sheetId="3" r:id="rId5"/>
-    <sheet name="Multimodal" sheetId="6" r:id="rId6"/>
-    <sheet name="EconProsperity" sheetId="7" r:id="rId7"/>
-    <sheet name="Freight" sheetId="8" r:id="rId8"/>
-    <sheet name="Safety" sheetId="9" r:id="rId9"/>
-    <sheet name="SGR" sheetId="10" r:id="rId10"/>
-    <sheet name="SocioEconEquity" sheetId="11" r:id="rId11"/>
+    <sheet name="0TitlePg" sheetId="4" r:id="rId3"/>
+    <sheet name="1ReduceVMT" sheetId="2" r:id="rId4"/>
+    <sheet name="2ReduceCongestion" sheetId="3" r:id="rId5"/>
+    <sheet name="3Multimodal" sheetId="6" r:id="rId6"/>
+    <sheet name="4EconProsperity" sheetId="7" r:id="rId7"/>
+    <sheet name="5Freight" sheetId="8" r:id="rId8"/>
+    <sheet name="6Safety" sheetId="9" r:id="rId9"/>
+    <sheet name="7SGR" sheetId="10" r:id="rId10"/>
+    <sheet name="8SocioEconEquity" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">import!$A$1:$G$116</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">lookup_helper!$A$3:$I$118</definedName>
-    <definedName name="_Hlk20929805" localSheetId="6">EconProsperity!$A$76</definedName>
-    <definedName name="_Hlk20929868" localSheetId="9">SGR!$A$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">Freight!$A$1:$H$41</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">ReduceVMT!$A$1:$H$45</definedName>
+    <definedName name="_Hlk20929805" localSheetId="6">'4EconProsperity'!$A$90</definedName>
+    <definedName name="_Hlk20929868" localSheetId="9">'7SGR'!$A$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1ReduceVMT'!$A$1:$H$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'3Multimodal'!$A$1:$H$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'5Freight'!$A$1:$H$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'8SocioEconEquity'!$A$1:$H$88</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'1ReduceVMT'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'2ReduceCongestion'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'3Multimodal'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">'4EconProsperity'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">'5Freight'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="8">'6Safety'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="9">'7SGR'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="10">'8SocioEconEquity'!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="296">
   <si>
     <t>data_item</t>
   </si>
@@ -420,9 +431,6 @@
   </si>
   <si>
     <t>Project Summary</t>
-  </si>
-  <si>
-    <t>Project Performance Outcomes</t>
   </si>
   <si>
     <t>Reduce Vehicle Miles Traveled (VMT) per Capita</t>
@@ -756,12 +764,177 @@
     <t>Multi-modal indicator 3: Transit activity:</t>
   </si>
   <si>
+    <t>&lt;insert bikeway map here&gt;</t>
+  </si>
+  <si>
+    <t>&lt;insert transit activity map here&gt;</t>
+  </si>
+  <si>
+    <t>Promote Economic Prosperity</t>
+  </si>
+  <si>
+    <t>Economic Prosperity Indicator 1: Access to jobs in all sectors by mode</t>
+  </si>
+  <si>
+    <t>Economic Prosperity Indicator 2: Total new jobs added within 0.5mi of project area by 2040</t>
+  </si>
+  <si>
+    <t>Within 0.25mi of project</t>
+  </si>
+  <si>
+    <t>Within community type</t>
+  </si>
+  <si>
+    <t>Within region</t>
+  </si>
+  <si>
+    <t>Bike lanes and paths as share of total road miles</t>
+  </si>
+  <si>
+    <t>Intersections per acre</t>
+  </si>
+  <si>
+    <t>Economic Prosperity Indicator 3: Access to services*:</t>
+  </si>
+  <si>
+    <t>*”Services” include parks, K-12 schools, higher education facilities, libraries, hospitals, other medical service facilities, grocery stores, pharmacies, clothing stores, and banks.</t>
+  </si>
+  <si>
+    <t>Economic Prosperity Indicator 4: K-12 Enrollment within 0.5mi of project location:</t>
+  </si>
+  <si>
+    <t>Economic Prosperity Indicator 5: Education Facility (K12 schools and higher education) Access</t>
+  </si>
+  <si>
+    <t>Support Ag Economy</t>
+  </si>
+  <si>
+    <t>Economic Prosperity Indicator 6: Ag acreage share within 0.5mi of project location</t>
+  </si>
+  <si>
+    <t>Improve Freight Movement</t>
+  </si>
+  <si>
+    <t>*STAA = Surface Transportation Assistance Act. Under this act, designated STAA truck routes must meet federal design guidelines to safely accommodate large trucks.</t>
+  </si>
+  <si>
+    <t>Map of project against STAA network</t>
+  </si>
+  <si>
+    <t>&lt;insert STAA routes in project area map&gt;</t>
+  </si>
+  <si>
+    <t>Freight Performance Indicator 2: Share of jobs within industrial sectors</t>
+  </si>
+  <si>
+    <t>Freight Performance Indicator 3: Growth in industrial jobs within 0.5mi of project location</t>
+  </si>
+  <si>
+    <t>Make a safer transportation system</t>
+  </si>
+  <si>
+    <t>Note: Collision data only include collisions involving an injury or fatality and are from UC Berkeley’s Transportation Injury Mapping System (TIMS)</t>
+  </si>
+  <si>
+    <t>Collision heat map of corridor</t>
+  </si>
+  <si>
+    <t>Safety Indicator 1: Total collisions (2014-2018)</t>
+  </si>
+  <si>
+    <t>&lt;insert collision heat map, with heat parameters scaled to zoom level?&gt;</t>
+  </si>
+  <si>
+    <t>Safety Indicator 2: Collisions per million 100 MVMT*</t>
+  </si>
+  <si>
+    <t>Safety Indicator 3: Fatalities and bike/pedestrian involvement</t>
+  </si>
+  <si>
+    <t>project_cline_len</t>
+  </si>
+  <si>
+    <t>Project Length (Centerline Miles)</t>
+  </si>
+  <si>
+    <t>Maintain a state of good repair</t>
+  </si>
+  <si>
+    <t>State of good repair indicator 1: PCI</t>
+  </si>
+  <si>
+    <t>State of good repair indicator 2: AADT</t>
+  </si>
+  <si>
+    <t>Promote Socioeconomic Equity</t>
+  </si>
+  <si>
+    <t>Within 0.5mi of project location</t>
+  </si>
+  <si>
+    <t>*EJ Categories include: &lt;insert categories here&gt;</t>
+  </si>
+  <si>
+    <t>*Weighted based on population that lives both within 0.5mi of project segment and within an EJ area.</t>
+  </si>
+  <si>
+    <t>Total Jobs</t>
+  </si>
+  <si>
+    <t>Entry-level Jobs</t>
+  </si>
+  <si>
+    <t>Ed Facilities</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>30-min walk</t>
+  </si>
+  <si>
+    <t>30-min biking</t>
+  </si>
+  <si>
+    <t>30-min drive</t>
+  </si>
+  <si>
+    <t>45-min transit</t>
+  </si>
+  <si>
+    <t>15-min drive</t>
+  </si>
+  <si>
+    <t>VMT Indicator 1: Total change in jobs and dwelling units within 0.5mi of project:</t>
+  </si>
+  <si>
+    <t>*The land use diversity index ranges from 0 to 1 and measures an area’s ratio of households to K-12 student enrollment, park acreage, and employment in the retail, service, and food sectors. A score of 1 indicates an “ideal” ratio of households to amenities that people use on a daily basis like shopping, restaurants, schools, etc. that in turn increases the likelihood that people living in those households will either walk or bike to these destinations, or drive a shorter distance.</t>
+  </si>
+  <si>
+    <t>Congestion indicator 2: Travel Time Reliability*</t>
+  </si>
+  <si>
+    <t>*If no data appear for speed or reliability charts, it means no data were available for the project.</t>
+  </si>
+  <si>
+    <t>On project segment</t>
+  </si>
+  <si>
+    <t>Freight Performance Indicator 1: Percent of project that is on federally-recognized STAA truck route*:</t>
+  </si>
+  <si>
+    <t>Increase Job Access</t>
+  </si>
+  <si>
+    <t>Increase School Access</t>
+  </si>
+  <si>
     <r>
       <t>Transit service density near project area</t>
     </r>
     <r>
       <rPr>
-        <b/>
+        <i/>
         <sz val="8"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -770,182 +943,12 @@
       </rPr>
       <t> </t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt;insert bikeway map here&gt;</t>
-  </si>
-  <si>
-    <t>&lt;insert transit activity map here&gt;</t>
-  </si>
-  <si>
-    <t>Promote Economic Prosperity</t>
-  </si>
-  <si>
-    <t>Job Access</t>
-  </si>
-  <si>
-    <t>Economic Prosperity Indicator 1: Access to jobs in all sectors by mode</t>
-  </si>
-  <si>
-    <t>Economic Prosperity Indicator 2: Total new jobs added within 0.5mi of project area by 2040</t>
-  </si>
-  <si>
-    <t>Within 0.25mi of project</t>
-  </si>
-  <si>
-    <t>Within community type</t>
-  </si>
-  <si>
-    <t>Within region</t>
-  </si>
-  <si>
-    <t>Bike lanes and paths as share of total road miles</t>
-  </si>
-  <si>
-    <t>Intersections per acre</t>
-  </si>
-  <si>
-    <t>Economic Prosperity Indicator 3: Access to services*:</t>
-  </si>
-  <si>
-    <t>*”Services” include parks, K-12 schools, higher education facilities, libraries, hospitals, other medical service facilities, grocery stores, pharmacies, clothing stores, and banks.</t>
-  </si>
-  <si>
-    <t>School Access</t>
-  </si>
-  <si>
-    <t>Economic Prosperity Indicator 4: K-12 Enrollment within 0.5mi of project location:</t>
-  </si>
-  <si>
-    <t>Economic Prosperity Indicator 5: Education Facility (K12 schools and higher education) Access</t>
-  </si>
-  <si>
-    <t>Support Ag Economy</t>
-  </si>
-  <si>
-    <t>Economic Prosperity Indicator 6: Ag acreage share within 0.5mi of project location</t>
-  </si>
-  <si>
-    <t>Improve Freight Movement</t>
-  </si>
-  <si>
-    <t>*STAA = Surface Transportation Assistance Act. Under this act, designated STAA truck routes must meet federal design guidelines to safely accommodate large trucks.</t>
-  </si>
-  <si>
-    <t>Freight Performance Indicator 1: Percent of project that is on federally-recognized STAA* truck route: 0%</t>
-  </si>
-  <si>
-    <t>Map of project against STAA network</t>
-  </si>
-  <si>
-    <t>&lt;insert STAA routes in project area map&gt;</t>
-  </si>
-  <si>
-    <t>Freight Performance Indicator 2: Share of jobs within industrial sectors</t>
-  </si>
-  <si>
-    <t>Freight Performance Indicator 3: Growth in industrial jobs within 0.5mi of project location</t>
-  </si>
-  <si>
-    <t>Make a safer transportation system</t>
-  </si>
-  <si>
-    <t>Note: Collision data only include collisions involving an injury or fatality and are from UC Berkeley’s Transportation Injury Mapping System (TIMS)</t>
-  </si>
-  <si>
-    <t>Collision heat map of corridor</t>
-  </si>
-  <si>
-    <t>Safety Indicator 1: Total collisions (2014-2018)</t>
-  </si>
-  <si>
-    <t>&lt;insert collision heat map, with heat parameters scaled to zoom level?&gt;</t>
-  </si>
-  <si>
-    <t>Safety Indicator 2: Collisions per million 100 MVMT*</t>
-  </si>
-  <si>
-    <t>Safety Indicator 3: Fatalities and bike/pedestrian involvement</t>
-  </si>
-  <si>
-    <t>project_cline_len</t>
-  </si>
-  <si>
-    <t>Project Length (Centerline Miles)</t>
-  </si>
-  <si>
-    <t>Maintain a state of good repair</t>
-  </si>
-  <si>
-    <t>State of good repair indicator 1: PCI</t>
-  </si>
-  <si>
-    <t>State of good repair indicator 2: AADT</t>
-  </si>
-  <si>
-    <t>Promote Socioeconomic Equity</t>
-  </si>
-  <si>
-    <t>Equity Indicator 2: Share of population that falls under EJ category</t>
-  </si>
-  <si>
-    <t>Within 0.5mi of project location</t>
-  </si>
-  <si>
-    <t>*EJ Categories include: &lt;insert categories here&gt;</t>
-  </si>
-  <si>
-    <t>Equity Indicator 3: Accessibility for EJ populations from project segment*</t>
-  </si>
-  <si>
-    <t>*Weighted based on population that lives both within 0.5mi of project segment and within an EJ area.</t>
-  </si>
-  <si>
-    <t>Equity Indicator 1: Environmental justice (EJ) population within 0.5mi of project</t>
-  </si>
-  <si>
-    <t>Total Jobs</t>
-  </si>
-  <si>
-    <t>Entry-level Jobs</t>
-  </si>
-  <si>
-    <t>Ed Facilities</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t>30-min walk</t>
-  </si>
-  <si>
-    <t>30-min biking</t>
-  </si>
-  <si>
-    <t>30-min drive</t>
-  </si>
-  <si>
-    <t>45-min transit</t>
-  </si>
-  <si>
-    <t>15-min drive</t>
-  </si>
-  <si>
-    <t>VMT Indicator 1: Total change in jobs and dwelling units within 0.5mi of project:</t>
-  </si>
-  <si>
-    <t>*The land use diversity index ranges from 0 to 1 and measures an area’s ratio of households to K-12 student enrollment, park acreage, and employment in the retail, service, and food sectors. A score of 1 indicates an “ideal” ratio of households to amenities that people use on a daily basis like shopping, restaurants, schools, etc. that in turn increases the likelihood that people living in those households will either walk or bike to these destinations, or drive a shorter distance.</t>
+  </si>
+  <si>
+    <t>Share of project length with NPMRDS data</t>
+  </si>
+  <si>
+    <t>Project length with NPMRDS overlap</t>
   </si>
   <si>
     <r>
@@ -954,7 +957,7 @@
     <r>
       <rPr>
         <vertAlign val="superscript"/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -964,7 +967,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -975,24 +978,37 @@
     </r>
   </si>
   <si>
-    <t>Congestion indicator 2: Travel Time Reliability*</t>
-  </si>
-  <si>
-    <t>*If no data appear for speed or reliability charts, it means no data were available for the project.</t>
+    <t>*Travel time reliability (TTR) = 80th percentile travel time / 50th percentile travel time. Per 2017 MAP-21 performance criteria, a TTR score greater than 1.5 is considered "unreliable" for the indicated time period. A TTR of 1.00 corresponds to perfect reliability (i.e., it always takes the same amount of time to travel the project segment).</t>
+  </si>
+  <si>
+    <t>Within 0.5mi of project</t>
+  </si>
+  <si>
+    <t>PDF report generated:</t>
+  </si>
+  <si>
+    <t>Equity Indicator 1: Population within 0.5mi of project living in designated Environmental justice (EJ) community</t>
+  </si>
+  <si>
+    <t>Equity Indicator 2: Share of population living in EJ community</t>
+  </si>
+  <si>
+    <t>Equity Indicator 3: Accessibility for people in EJ communities that are near project segment*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
+    <numFmt numFmtId="168" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1176,14 +1192,6 @@
       <family val="2"/>
     </font>
     <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="8"/>
       <color theme="1"/>
@@ -1206,10 +1214,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1703,7 +1734,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1760,7 +1791,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1784,14 +1815,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1800,7 +1828,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1812,15 +1840,50 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1830,17 +1893,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -2279,6 +2343,7 @@
         <c:axId val="1440870240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2905,6 +2970,7 @@
         <c:axId val="1541216127"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2966,7 +3032,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3075,7 +3141,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Total Job Accessibility for EJ Populations within 0.5mi of Project</a:t>
+              <a:t>Total Job Accessibility for EJ Populations Adjacent to Project</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3301,6 +3367,7 @@
         <c:axId val="1544029663"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3495,8 +3562,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Entry-Level Job Accessibility for EJ Populations within 0.5mi of Project</a:t>
+              <a:t>Entry-Level Job Accessibility for EJ Populations </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Adjacent to Project</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3923,8 +3997,15 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Accessibility for EJ Populations within 0.5mi of Project</a:t>
+              <a:t>Accessibility for EJ Populations </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Adjacent to Project</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4303,7 +4384,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -4343,7 +4424,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Services</a:t>
+              <a:t>Services*</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -4351,8 +4432,15 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Accessibility for EJ Populations within 0.5mi of Project</a:t>
+              <a:t>Accessibility for EJ Populations </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Adjacent to Project</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5115,6 +5203,7 @@
         <c:axId val="1159554272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5686,6 +5775,7 @@
         <c:axId val="476843424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6429,6 +6519,7 @@
         <c:axId val="782932191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7128,6 +7219,7 @@
         <c:axId val="1528980992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7855,6 +7947,7 @@
         <c:axId val="1528980992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8594,6 +8687,7 @@
         <c:axId val="1528980992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -9032,6 +9126,7 @@
         <c:axId val="1818653760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -9386,6 +9481,7 @@
         <c:axId val="1818661248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -17098,13 +17194,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17136,13 +17232,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17179,13 +17275,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17214,15 +17310,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>176211</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:colOff>71436</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>400049</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17256,13 +17352,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>100011</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1038225</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17291,15 +17387,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>14288</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>652463</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17329,15 +17425,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>33338</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1047751</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17367,15 +17463,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>233362</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17409,14 +17505,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>338137</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>147637</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>79376</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17450,13 +17546,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17490,15 +17586,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>109536</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>176211</xdr:rowOff>
+      <xdr:colOff>23811</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>352424</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17526,15 +17622,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>300038</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17564,15 +17660,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>76201</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>319088</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17602,15 +17698,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>309563</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17937,11 +18033,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17965,13 +18062,13 @@
         <v>116</v>
       </c>
       <c r="D1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E1" t="s">
         <v>117</v>
       </c>
       <c r="F1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G1" t="s">
         <v>118</v>
@@ -18019,10 +18116,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -19143,43 +19240,64 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G116" xr:uid="{B8AC6F49-A85F-41C2-8B75-187D5827CD3E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A06C26-04B9-49D2-98B1-15755B05F762}">
-  <dimension ref="A1:A7"/>
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45">
+    <row r="1" spans="1:8" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="72" t="str">
+        <f>"Project name: "&amp;VLOOKUP("Project name",lookup_helper!$B:$D,3,FALSE)</f>
+        <v>Project name: test_project_YubaCity</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="72" t="str">
+        <f>"Project community type: "&amp;VLOOKUP("Project Community Type",lookup_helper!$B:$D,3,FALSE)</f>
+        <v>Project community type: Small-Town Established Communities</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="62"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="44">
         <f>VLOOKUP("Project Pavement Condition Index (PCI)",lookup_helper!$B:$D,3,FALSE)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="50">
         <f>VLOOKUP("Project AADT",lookup_helper!$B:$D,3,FALSE)</f>
         <v>60000</v>
       </c>
@@ -19192,10 +19310,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC68989-782F-4C16-9EA8-F79FF49CA3B0}">
-  <dimension ref="A1:E18"/>
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19204,117 +19323,156 @@
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="51">
+    <row r="1" spans="1:8" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="72" t="str">
+        <f>"Project name: "&amp;VLOOKUP("Project name",lookup_helper!$B:$D,3,FALSE)</f>
+        <v>Project name: test_project_YubaCity</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="72" t="str">
+        <f>"Project community type: "&amp;VLOOKUP("Project Community Type",lookup_helper!$B:$D,3,FALSE)</f>
+        <v>Project community type: Small-Town Established Communities</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="62"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="50">
         <f>lookup_helper!D95*lookup_helper!D72</f>
         <v>4050</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="52">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="51">
         <f>VLOOKUP("Percent of project area residents within an EJ community",lookup_helper!$B:$D,3,FALSE)</f>
         <v>0.69863722615145762</v>
       </c>
-      <c r="B8" s="52">
+      <c r="B11" s="51">
         <f>VLOOKUP("Percent of project area residents within an EJ community",lookup_helper!$B:$F,5,FALSE)</f>
         <v>0.34730153421679688</v>
       </c>
-      <c r="C8" s="52">
+      <c r="C11" s="51">
         <f>VLOOKUP("Percent of project area residents within an EJ community",lookup_helper!$B:$G,6,FALSE)</f>
         <v>0.3746385676273582</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53" t="s">
-        <v>275</v>
-      </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-    </row>
-    <row r="15" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-    </row>
-    <row r="16" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="45" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="17" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
     </row>
     <row r="18" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-    </row>
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+    </row>
+    <row r="19" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="53"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+    </row>
+    <row r="20" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+    </row>
+    <row r="21" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="71" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="B86" s="76"/>
+      <c r="C86" s="76"/>
+      <c r="D86" s="76"/>
+      <c r="E86" s="76"/>
+      <c r="F86" s="76"/>
+      <c r="G86" s="76"/>
+      <c r="H86" s="69"/>
+      <c r="I86" s="69"/>
+    </row>
+    <row r="90" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A86:G86"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="96" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="44" max="7" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57897DFD-9194-4D6D-AE68-E488992A8706}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="P95" sqref="P95:R113"/>
+      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19324,7 +19482,7 @@
     <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="21.85546875" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -19335,13 +19493,13 @@
         <v>116</v>
       </c>
       <c r="F1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G1" t="s">
         <v>117</v>
       </c>
       <c r="H1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I1" t="s">
         <v>118</v>
@@ -19349,33 +19507,33 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F2" t="s">
         <v>220</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H2" t="s">
         <v>220</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>221</v>
-      </c>
-      <c r="G2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H2" t="s">
-        <v>221</v>
-      </c>
-      <c r="I2" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>130</v>
-      </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D3">
         <v>2016</v>
@@ -19384,19 +19542,19 @@
         <v>2040</v>
       </c>
       <c r="F3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H3" t="s">
         <v>202</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>204</v>
       </c>
-      <c r="H3" t="s">
-        <v>203</v>
-      </c>
-      <c r="I3" t="s">
-        <v>205</v>
-      </c>
       <c r="J3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -19404,10 +19562,10 @@
         <v>31</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D4" s="2">
         <f>VLOOKUP($A4,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -19439,10 +19597,10 @@
         <v>32</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D5" s="1">
         <f>VLOOKUP($A5,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -19469,7 +19627,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="16"/>
       <c r="R5" s="17"/>
@@ -19482,7 +19640,7 @@
         <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D6" t="str">
         <f>VLOOKUP($A6,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -19517,10 +19675,10 @@
         <v>99</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D7" s="1">
         <f>VLOOKUP($A7,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -19547,7 +19705,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q7" s="19" t="str">
         <f>IF(SUMIFS($D$19:$D$42,$J$19:$J$42,"NB")&gt;0,"NB","EB")</f>
@@ -19563,10 +19721,10 @@
         <v>100</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D8" s="1">
         <f>VLOOKUP($A8,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -19593,7 +19751,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q8" s="22">
         <f t="array" ref="Q8">SUMPRODUCT(--($J$19:$J$42=Q$7),--($B$19:$B$42=$P8),$D$19:$D$42)</f>
@@ -19609,10 +19767,10 @@
         <v>101</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D9" s="1">
         <f>VLOOKUP($A9,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -19639,7 +19797,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q9" s="22">
         <f t="array" ref="Q9">SUMPRODUCT(--($J$19:$J$42=Q$7),--($B$19:$B$42=$P9),$D$19:$D$42)</f>
@@ -19655,10 +19813,10 @@
         <v>102</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D10" s="1">
         <f>VLOOKUP($A10,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -19693,10 +19851,10 @@
         <v>103</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D11" s="1">
         <f>VLOOKUP($A11,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -19735,7 +19893,7 @@
         <v>Very Low or Rural Res Density</v>
       </c>
       <c r="C12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D12" s="2">
         <f>VLOOKUP($A12,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -19774,7 +19932,7 @@
         <v>Low Density</v>
       </c>
       <c r="C13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D13" s="2">
         <f>VLOOKUP($A13,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -19801,7 +19959,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q13" s="19" t="str">
         <f>IF(SUMIFS($D$19:$D$42,$J$19:$J$42,"NB")&gt;0,"NB","EB")</f>
@@ -19821,7 +19979,7 @@
         <v>Medium Density</v>
       </c>
       <c r="C14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D14" s="2">
         <f>VLOOKUP($A14,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -19848,7 +20006,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q14" s="24">
         <f t="array" ref="Q14">SUMPRODUCT(--($J$19:$J$42=Q$7),--($B$19:$B$42=$P14),$D$19:$D$42)</f>
@@ -19868,7 +20026,7 @@
         <v>Med-High Density</v>
       </c>
       <c r="C15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D15" s="2">
         <f>VLOOKUP($A15,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -19895,7 +20053,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q15" s="24">
         <f t="array" ref="Q15">SUMPRODUCT(--($J$19:$J$42=Q$7),--($B$19:$B$42=$P15),$D$19:$D$42)</f>
@@ -19915,7 +20073,7 @@
         <v>High Density</v>
       </c>
       <c r="C16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D16" s="2">
         <f>VLOOKUP($A16,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -19942,7 +20100,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q16" s="24">
         <f t="array" ref="Q16">SUMPRODUCT(--($J$19:$J$42=Q$7),--($B$19:$B$42=$P16),$D$19:$D$42)</f>
@@ -19962,7 +20120,7 @@
         <v>Mixed Use</v>
       </c>
       <c r="C17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D17" s="2">
         <f>VLOOKUP($A17,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -19989,7 +20147,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q17" s="27">
         <f t="array" ref="Q17">SUMPRODUCT(--($J$19:$J$42=Q$7),--($B$19:$B$42=$P17),$D$19:$D$42)</f>
@@ -20000,15 +20158,15 @@
         <v>1.0947187607200981</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>114</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D18" s="2">
         <f>VLOOKUP($A18,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -20034,16 +20192,24 @@
         <f>VLOOKUP($A18,import!$A:$G,MATCH(lookup_helper!I$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>0</v>
       </c>
+      <c r="P18" s="66" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q18" s="64">
+        <f t="array" ref="Q18">MAX(IF(ISNUMBER(SEARCH("calc_len",import!$A:$A)),import!$B:$B))</f>
+        <v>7460.2525126827086</v>
+      </c>
+      <c r="R18" s="65"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D19" s="2">
         <f>VLOOKUP($A19,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -20070,7 +20236,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="P19" s="63" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q19" s="67">
+        <f>(Q18/5280)/D117</f>
+        <v>1.0020756115251865</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -20078,10 +20251,10 @@
         <v>36</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D20" s="2">
         <f>VLOOKUP($A20,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -20108,7 +20281,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -20116,10 +20289,10 @@
         <v>37</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D21" s="2">
         <f>VLOOKUP($A21,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -20146,7 +20319,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -20154,10 +20327,10 @@
         <v>38</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D22" s="2">
         <f>VLOOKUP($A22,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -20184,7 +20357,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -20192,10 +20365,10 @@
         <v>39</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D23" s="2">
         <f>VLOOKUP($A23,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -20222,7 +20395,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -20230,10 +20403,10 @@
         <v>40</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D24" s="2">
         <f>VLOOKUP($A24,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -20260,7 +20433,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -20268,10 +20441,10 @@
         <v>42</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D25" s="2">
         <f>VLOOKUP($A25,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -20298,7 +20471,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -20306,10 +20479,10 @@
         <v>43</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D26" s="2">
         <f>VLOOKUP($A26,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -20336,7 +20509,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -20344,10 +20517,10 @@
         <v>44</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D27" s="2">
         <f>VLOOKUP($A27,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -20374,7 +20547,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -20382,10 +20555,10 @@
         <v>45</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D28" s="2">
         <f>VLOOKUP($A28,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -20412,7 +20585,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -20420,10 +20593,10 @@
         <v>46</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D29" s="2">
         <f>VLOOKUP($A29,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -20450,7 +20623,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -20458,10 +20631,10 @@
         <v>47</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D30" s="2">
         <f>VLOOKUP($A30,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -20488,7 +20661,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -20496,10 +20669,10 @@
         <v>49</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D31" s="2">
         <f>VLOOKUP($A31,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -20526,7 +20699,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -20534,10 +20707,10 @@
         <v>50</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D32" s="2">
         <f>VLOOKUP($A32,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -20564,7 +20737,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -20572,10 +20745,10 @@
         <v>51</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D33" s="3">
         <f>VLOOKUP($A33,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -20602,7 +20775,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -20610,10 +20783,10 @@
         <v>52</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D34" s="3">
         <f>VLOOKUP($A34,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -20640,7 +20813,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -20648,10 +20821,10 @@
         <v>53</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D35" s="3">
         <f>VLOOKUP($A35,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -20678,7 +20851,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -20686,10 +20859,10 @@
         <v>54</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D36" s="3">
         <f>VLOOKUP($A36,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -20716,7 +20889,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -20724,10 +20897,10 @@
         <v>56</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D37" s="2">
         <f>VLOOKUP($A37,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -20754,7 +20927,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -20762,10 +20935,10 @@
         <v>57</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D38" s="2">
         <f>VLOOKUP($A38,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -20792,7 +20965,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -20800,10 +20973,10 @@
         <v>58</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D39" s="3">
         <f>VLOOKUP($A39,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -20830,7 +21003,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -20838,10 +21011,10 @@
         <v>59</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D40" s="3">
         <f>VLOOKUP($A40,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -20868,7 +21041,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -20876,10 +21049,10 @@
         <v>60</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D41" s="3">
         <f>VLOOKUP($A41,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -20906,7 +21079,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -20914,10 +21087,10 @@
         <v>61</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D42" s="3">
         <f>VLOOKUP($A42,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -20944,7 +21117,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -20952,10 +21125,10 @@
         <v>7</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D43" s="2">
         <f>VLOOKUP($A43,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -20987,10 +21160,10 @@
         <v>8</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D44" s="2">
         <f>VLOOKUP($A44,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -21022,10 +21195,10 @@
         <v>9</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D45" s="2">
         <f>VLOOKUP($A45,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -21057,10 +21230,10 @@
         <v>10</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D46" s="2">
         <f>VLOOKUP($A46,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -21092,10 +21265,10 @@
         <v>11</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C47" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D47" s="2">
         <f>VLOOKUP($A47,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -21127,10 +21300,10 @@
         <v>12</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C48" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D48" s="2">
         <f>VLOOKUP($A48,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -21162,10 +21335,10 @@
         <v>13</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C49" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D49" s="2">
         <f>VLOOKUP($A49,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -21197,10 +21370,10 @@
         <v>14</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D50" s="2">
         <f>VLOOKUP($A50,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -21232,10 +21405,10 @@
         <v>15</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C51" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D51" s="2">
         <f>VLOOKUP($A51,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -21267,10 +21440,10 @@
         <v>16</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C52" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D52" s="2">
         <f>VLOOKUP($A52,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -21302,10 +21475,10 @@
         <v>17</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C53" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D53" s="2">
         <f>VLOOKUP($A53,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -21337,10 +21510,10 @@
         <v>18</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C54" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D54" s="2">
         <f>VLOOKUP($A54,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -21372,10 +21545,10 @@
         <v>90</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C55" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D55">
         <f>VLOOKUP($A55,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -21407,10 +21580,10 @@
         <v>28</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C56" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D56">
         <f>VLOOKUP($A56,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -21442,10 +21615,10 @@
         <v>29</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C57" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D57" s="1">
         <f>VLOOKUP($A57,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)/100</f>
@@ -21477,10 +21650,10 @@
         <v>91</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C58" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D58" s="2">
         <f>VLOOKUP($A58,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -21512,10 +21685,10 @@
         <v>98</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C59" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D59" s="1">
         <f>VLOOKUP($A59,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -21547,10 +21720,10 @@
         <v>33</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D60">
         <f>VLOOKUP($A60,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -21582,10 +21755,10 @@
         <v>62</v>
       </c>
       <c r="B61" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C61" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D61">
         <f>VLOOKUP($A61,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -21617,10 +21790,10 @@
         <v>63</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C62" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D62">
         <f>VLOOKUP($A62,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -21652,10 +21825,10 @@
         <v>105</v>
       </c>
       <c r="B63" s="29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C63" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D63">
         <f>VLOOKUP($A63,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -21687,10 +21860,10 @@
         <v>106</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C64" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D64">
         <f>VLOOKUP($A64,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -21722,10 +21895,10 @@
         <v>30</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D65" s="2">
         <f>VLOOKUP($A65,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -21757,10 +21930,10 @@
         <v>34</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D66" s="2">
         <f>VLOOKUP($A66,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -21792,10 +21965,10 @@
         <v>41</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C67" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D67" s="2">
         <f>VLOOKUP($A67,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -21827,10 +22000,10 @@
         <v>48</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C68" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D68" s="2">
         <f>VLOOKUP($A68,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -21862,10 +22035,10 @@
         <v>55</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C69" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D69" s="2">
         <f>VLOOKUP($A69,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -21897,10 +22070,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C70" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D70" s="2">
         <f>VLOOKUP($A70,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -21932,10 +22105,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D71" s="2">
         <f>VLOOKUP($A71,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -21967,10 +22140,10 @@
         <v>87</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C72" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="2">
         <f>VLOOKUP($A72,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22002,10 +22175,10 @@
         <v>92</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C73" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="2">
         <f>VLOOKUP($A73,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22037,10 +22210,10 @@
         <v>93</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C74" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D74" s="2">
         <f>VLOOKUP($A74,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22072,10 +22245,10 @@
         <v>94</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C75" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D75" s="2">
         <f>VLOOKUP($A75,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22107,10 +22280,10 @@
         <v>95</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C76" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D76" s="2">
         <f>VLOOKUP($A76,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22142,10 +22315,10 @@
         <v>96</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C77" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D77" s="2">
         <f>VLOOKUP($A77,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22177,10 +22350,10 @@
         <v>97</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C78" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D78" s="2">
         <f>VLOOKUP($A78,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22212,10 +22385,10 @@
         <v>107</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C79" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D79" s="3">
         <f>VLOOKUP($A79,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22247,10 +22420,10 @@
         <v>88</v>
       </c>
       <c r="B80" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C80" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D80" s="2">
         <f>VLOOKUP($A80,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22282,10 +22455,10 @@
         <v>89</v>
       </c>
       <c r="B81" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C81" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D81" s="2">
         <f>VLOOKUP($A81,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22317,10 +22490,10 @@
         <v>104</v>
       </c>
       <c r="B82" s="29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C82" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D82" s="2">
         <f>VLOOKUP($A82,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22352,10 +22525,10 @@
         <v>65</v>
       </c>
       <c r="B83" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C83" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D83" s="3">
         <f>VLOOKUP($A83,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22387,10 +22560,10 @@
         <v>66</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C84" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D84" s="3">
         <f>VLOOKUP($A84,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22422,10 +22595,10 @@
         <v>67</v>
       </c>
       <c r="B85" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C85" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D85" s="3">
         <f>VLOOKUP($A85,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22457,10 +22630,10 @@
         <v>19</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D86">
         <f>VLOOKUP($A86,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22492,10 +22665,10 @@
         <v>20</v>
       </c>
       <c r="B87" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D87">
         <f>VLOOKUP($A87,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22527,10 +22700,10 @@
         <v>21</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D88">
         <f>VLOOKUP($A88,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22562,10 +22735,10 @@
         <v>22</v>
       </c>
       <c r="B89" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D89">
         <f>VLOOKUP($A89,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22597,10 +22770,10 @@
         <v>23</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C90" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D90" s="1">
         <f>VLOOKUP($A90,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22632,10 +22805,10 @@
         <v>24</v>
       </c>
       <c r="B91" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C91" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D91">
         <f>VLOOKUP($A91,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22667,10 +22840,10 @@
         <v>25</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D92">
         <f>VLOOKUP($A92,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22702,10 +22875,10 @@
         <v>26</v>
       </c>
       <c r="B93" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C93" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D93" s="1">
         <f>VLOOKUP($A93,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22737,10 +22910,10 @@
         <v>27</v>
       </c>
       <c r="B94" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D94">
         <f>VLOOKUP($A94,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22772,10 +22945,10 @@
         <v>70</v>
       </c>
       <c r="B95" s="29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C95" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D95">
         <f>VLOOKUP($A95,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -22807,12 +22980,12 @@
         <v>71</v>
       </c>
       <c r="B96" s="29" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C96" t="s">
-        <v>218</v>
-      </c>
-      <c r="D96" s="56">
+        <v>217</v>
+      </c>
+      <c r="D96" s="54">
         <f>VLOOKUP($A96,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>1013.770763052209</v>
       </c>
@@ -22837,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="P96" s="29"/>
     </row>
@@ -22846,12 +23019,12 @@
         <v>72</v>
       </c>
       <c r="B97" s="29" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C97" t="s">
-        <v>218</v>
-      </c>
-      <c r="D97" s="56">
+        <v>217</v>
+      </c>
+      <c r="D97" s="54">
         <f>VLOOKUP($A97,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>2709.1952208835341</v>
       </c>
@@ -22876,7 +23049,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="P97" s="29"/>
     </row>
@@ -22885,12 +23058,12 @@
         <v>73</v>
       </c>
       <c r="B98" s="29" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C98" t="s">
-        <v>218</v>
-      </c>
-      <c r="D98" s="56">
+        <v>217</v>
+      </c>
+      <c r="D98" s="54">
         <f>VLOOKUP($A98,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>45512.183253012037</v>
       </c>
@@ -22915,7 +23088,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="P98" s="29"/>
     </row>
@@ -22924,12 +23097,12 @@
         <v>74</v>
       </c>
       <c r="B99" s="29" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C99" t="s">
-        <v>218</v>
-      </c>
-      <c r="D99" s="56">
+        <v>217</v>
+      </c>
+      <c r="D99" s="54">
         <f>VLOOKUP($A99,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>6491.7790361445777</v>
       </c>
@@ -22954,7 +23127,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="P99" s="29"/>
     </row>
@@ -22963,12 +23136,12 @@
         <v>75</v>
       </c>
       <c r="B100" s="29" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C100" t="s">
-        <v>218</v>
-      </c>
-      <c r="D100" s="56">
+        <v>217</v>
+      </c>
+      <c r="D100" s="54">
         <f>VLOOKUP($A100,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>272.66024096385541</v>
       </c>
@@ -22993,7 +23166,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="P100" s="29"/>
     </row>
@@ -23002,12 +23175,12 @@
         <v>76</v>
       </c>
       <c r="B101" s="29" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C101" t="s">
-        <v>218</v>
-      </c>
-      <c r="D101" s="56">
+        <v>217</v>
+      </c>
+      <c r="D101" s="54">
         <f>VLOOKUP($A101,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>795.25333333333333</v>
       </c>
@@ -23032,7 +23205,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="P101" s="29"/>
     </row>
@@ -23041,12 +23214,12 @@
         <v>77</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C102" t="s">
-        <v>218</v>
-      </c>
-      <c r="D102" s="56">
+        <v>217</v>
+      </c>
+      <c r="D102" s="54">
         <f>VLOOKUP($A102,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>12386.82514056225</v>
       </c>
@@ -23071,7 +23244,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="P102" s="29"/>
     </row>
@@ -23080,12 +23253,12 @@
         <v>78</v>
       </c>
       <c r="B103" s="29" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C103" t="s">
-        <v>218</v>
-      </c>
-      <c r="D103" s="56">
+        <v>217</v>
+      </c>
+      <c r="D103" s="54">
         <f>VLOOKUP($A103,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>1514.9185542168671</v>
       </c>
@@ -23110,7 +23283,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="P103" s="29"/>
     </row>
@@ -23119,12 +23292,12 @@
         <v>79</v>
       </c>
       <c r="B104" s="29" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C104" t="s">
-        <v>218</v>
-      </c>
-      <c r="D104" s="56">
+        <v>217</v>
+      </c>
+      <c r="D104" s="54">
         <f>VLOOKUP($A104,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>1.2211646586345379</v>
       </c>
@@ -23149,7 +23322,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="P104" s="29"/>
     </row>
@@ -23158,12 +23331,12 @@
         <v>80</v>
       </c>
       <c r="B105" s="29" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C105" t="s">
-        <v>218</v>
-      </c>
-      <c r="D105" s="56">
+        <v>217</v>
+      </c>
+      <c r="D105" s="54">
         <f>VLOOKUP($A105,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>5.2928514056224891</v>
       </c>
@@ -23188,7 +23361,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="P105" s="29"/>
     </row>
@@ -23197,12 +23370,12 @@
         <v>81</v>
       </c>
       <c r="B106" s="29" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C106" t="s">
-        <v>218</v>
-      </c>
-      <c r="D106" s="56">
+        <v>217</v>
+      </c>
+      <c r="D106" s="54">
         <f>VLOOKUP($A106,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>94.170281124498004</v>
       </c>
@@ -23227,7 +23400,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="P106" s="29"/>
     </row>
@@ -23236,12 +23409,12 @@
         <v>82</v>
       </c>
       <c r="B107" s="29" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C107" t="s">
-        <v>218</v>
-      </c>
-      <c r="D107" s="56">
+        <v>217</v>
+      </c>
+      <c r="D107" s="54">
         <f>VLOOKUP($A107,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>10.89180722891566</v>
       </c>
@@ -23266,7 +23439,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="P107" s="29"/>
     </row>
@@ -23275,12 +23448,12 @@
         <v>83</v>
       </c>
       <c r="B108" s="29" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C108" t="s">
-        <v>218</v>
-      </c>
-      <c r="D108" s="56">
+        <v>217</v>
+      </c>
+      <c r="D108" s="54">
         <f>VLOOKUP($A108,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>7.5514457831325306</v>
       </c>
@@ -23305,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="P108" s="29"/>
     </row>
@@ -23314,12 +23487,12 @@
         <v>84</v>
       </c>
       <c r="B109" s="29" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C109" t="s">
-        <v>218</v>
-      </c>
-      <c r="D109" s="56">
+        <v>217</v>
+      </c>
+      <c r="D109" s="54">
         <f>VLOOKUP($A109,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>19.925100401606429</v>
       </c>
@@ -23344,7 +23517,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="P109" s="29"/>
     </row>
@@ -23353,12 +23526,12 @@
         <v>85</v>
       </c>
       <c r="B110" s="29" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C110" t="s">
-        <v>218</v>
-      </c>
-      <c r="D110" s="56">
+        <v>217</v>
+      </c>
+      <c r="D110" s="54">
         <f>VLOOKUP($A110,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>238.27309236947789</v>
       </c>
@@ -23383,7 +23556,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="P110" s="29"/>
     </row>
@@ -23392,12 +23565,12 @@
         <v>86</v>
       </c>
       <c r="B111" s="29" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C111" t="s">
-        <v>218</v>
-      </c>
-      <c r="D111" s="56">
+        <v>217</v>
+      </c>
+      <c r="D111" s="54">
         <f>VLOOKUP($A111,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
         <v>51.080883534136547</v>
       </c>
@@ -23422,7 +23595,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="P111" s="29"/>
     </row>
@@ -23431,10 +23604,10 @@
         <v>1</v>
       </c>
       <c r="B112" s="29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C112" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D112" t="str">
         <f>VLOOKUP($A112,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23466,10 +23639,10 @@
         <v>2</v>
       </c>
       <c r="B113" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C113" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D113" t="str">
         <f>VLOOKUP($A113,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23501,10 +23674,10 @@
         <v>3</v>
       </c>
       <c r="B114" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C114" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D114">
         <f>VLOOKUP($A114,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23536,10 +23709,10 @@
         <v>4</v>
       </c>
       <c r="B115" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C115" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D115">
         <f>VLOOKUP($A115,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23571,10 +23744,10 @@
         <v>5</v>
       </c>
       <c r="B116" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C116" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D116">
         <f>VLOOKUP($A116,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23603,17 +23776,17 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B117" s="29" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C117" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D117">
         <f>VLOOKUP($A117,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
-        <v>1</v>
+        <v>1.41</v>
       </c>
       <c r="E117">
         <f>VLOOKUP($A117,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23641,10 +23814,10 @@
         <v>6</v>
       </c>
       <c r="B118" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C118" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D118" t="str">
         <f>VLOOKUP($A118,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23681,52 +23854,56 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68FC8CB5-C6A7-44CA-A479-35B28693DBAA}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:I45"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="str">
+      <c r="A2" s="74" t="str">
         <f>"Project Performance Assessment Report: "&amp;import!$B$2</f>
         <v>Project Performance Assessment Report: test_project_YubaCity</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -23739,75 +23916,75 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
+      <c r="A31" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
       <c r="E31" s="32" t="str">
         <f>VLOOKUP(A31,lookup_helper!$B$112:$D$118,3,FALSE)</f>
         <v>test_project_YubaCity</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
+      <c r="A32" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
       <c r="E32" s="32" t="str">
         <f>VLOOKUP(A32,lookup_helper!$B$112:$D$118,3,FALSE)</f>
         <v>Freeway</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
+      <c r="A33" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
       <c r="E33" s="33">
         <f>VLOOKUP(A33,lookup_helper!$B$112:$D$118,3,FALSE)</f>
         <v>60000</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
+      <c r="A34" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
       <c r="E34" s="33">
         <f>VLOOKUP(A34,lookup_helper!$B$112:$D$118,3,FALSE)</f>
         <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
+      <c r="A35" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
       <c r="E35" s="33">
         <f>VLOOKUP(A35,lookup_helper!$B$112:$D$118,3,FALSE)</f>
         <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="57" t="s">
-        <v>266</v>
-      </c>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="50">
+      <c r="A36" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="49">
         <f>VLOOKUP(A36,lookup_helper!$B$112:$D$118,3,FALSE)</f>
-        <v>1</v>
+        <v>1.41</v>
       </c>
       <c r="F36" s="31"/>
       <c r="G36" s="31"/>
@@ -23815,12 +23992,12 @@
       <c r="I36" s="31"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
+      <c r="A37" s="73" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" s="73"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
       <c r="E37" s="32" t="str">
         <f>VLOOKUP(A37,lookup_helper!$B$112:$D$118,3,FALSE)</f>
         <v>Small-Town Established Communities</v>
@@ -23875,7 +24052,9 @@
       <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
+      <c r="A42" s="58" t="s">
+        <v>292</v>
+      </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
@@ -23886,7 +24065,10 @@
       <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
+      <c r="A43" s="59">
+        <f ca="1">NOW()</f>
+        <v>43854.683551504633</v>
+      </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
@@ -23928,82 +24110,90 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECCAFD4-91AA-4A54-9D7E-20D5302EC54C}">
-  <dimension ref="A1:H42"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="60" t="str">
+        <f>"Project name: "&amp;VLOOKUP("Project name",lookup_helper!$B:$D,3,FALSE)</f>
+        <v>Project name: test_project_YubaCity</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="60" t="str">
+        <f>"Project community type: "&amp;VLOOKUP("Project Community Type",lookup_helper!$B:$D,3,FALSE)</f>
+        <v>Project community type: Small-Town Established Communities</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="59" t="s">
-        <v>287</v>
-      </c>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="59"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-    </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="59"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-    </row>
-    <row r="42" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="59"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
+      <c r="A41" s="75" t="s">
+        <v>279</v>
+      </c>
+      <c r="B41" s="75"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="75"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="75"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="75"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+    </row>
+    <row r="44" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="75"/>
+      <c r="B44" s="75"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A39:H42"/>
+    <mergeCell ref="A41:H44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="95" orientation="portrait" r:id="rId1"/>
@@ -24013,86 +24203,118 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6214DCB8-A904-4048-8891-634DB5071E9F}">
-  <dimension ref="A1:I41"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="72" t="str">
+        <f>"Project name: "&amp;VLOOKUP("Project name",lookup_helper!$B:$D,3,FALSE)</f>
+        <v>Project name: test_project_YubaCity</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="72" t="str">
+        <f>"Project community type: "&amp;VLOOKUP("Project Community Type",lookup_helper!$B:$D,3,FALSE)</f>
+        <v>Project community type: Small-Town Established Communities</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="61"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
     </row>
-    <row r="19" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="59" t="s">
-        <v>288</v>
-      </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+    </row>
+    <row r="22" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="76" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="48" t="s">
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+    </row>
+    <row r="41" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="76" t="s">
         <v>290</v>
       </c>
+      <c r="B41" s="76"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="68" t="s">
+        <v>281</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A19:I19"/>
+  <mergeCells count="2">
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A22:H22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -24102,249 +24324,278 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87207DCC-1888-4FF1-B645-7715A9482FCA}">
-  <dimension ref="A1:I54"/>
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="72" t="str">
+        <f>"Project name: "&amp;VLOOKUP("Project name",lookup_helper!$B:$D,3,FALSE)</f>
+        <v>Project name: test_project_YubaCity</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="72" t="str">
+        <f>"Project community type: "&amp;VLOOKUP("Project Community Type",lookup_helper!$B:$D,3,FALSE)</f>
+        <v>Project community type: Small-Town Established Communities</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="62"/>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="77" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="42" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="38">
+        <f>VLOOKUP($A7,lookup_helper!$B:$I,MATCH("projval_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
+        <v>0.1021114271418558</v>
+      </c>
+      <c r="B9" s="38">
+        <f>VLOOKUP($A7,lookup_helper!$B:$I,MATCH("CommunityType_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
+        <v>5.8844134774233253E-2</v>
+      </c>
+      <c r="C9" s="38">
+        <f>VLOOKUP($A7,lookup_helper!$B:$I,MATCH("REGION_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
+        <v>1.480071598380431E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+    </row>
+    <row r="12" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="77" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="78" t="s">
         <v>239</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38">
-        <f>VLOOKUP($A4,lookup_helper!$B:$I,MATCH("projval_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
-        <v>0.1021114271418558</v>
-      </c>
-      <c r="B6" s="38">
-        <f>VLOOKUP($A4,lookup_helper!$B:$I,MATCH("CommunityType_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
-        <v>5.8844134774233253E-2</v>
-      </c>
-      <c r="C6" s="38">
-        <f>VLOOKUP($A4,lookup_helper!$B:$I,MATCH("REGION_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
-        <v>1.480071598380431E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-    </row>
-    <row r="9" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="60" t="s">
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+    </row>
+    <row r="15" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="43">
+        <f>VLOOKUP($A14,lookup_helper!$B:$I,MATCH("projval_2016",lookup_helper!$1:$1,0)-1,FALSE)</f>
+        <v>0.33368336973414081</v>
+      </c>
+      <c r="B16" s="43">
+        <f>VLOOKUP($A14,lookup_helper!$B:$I,MATCH("CommunityType_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
+        <v>9.9496332560479198E-2</v>
+      </c>
+      <c r="C16" s="43">
+        <f>VLOOKUP($A14,lookup_helper!$B:$I,MATCH("REGION_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
+        <v>0.1052465714535069</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="61" t="s">
-        <v>242</v>
-      </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-    </row>
-    <row r="12" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43">
-        <f>VLOOKUP($A11,lookup_helper!$B:$I,MATCH("projval_2016",lookup_helper!$1:$1,0)-1,FALSE)</f>
-        <v>0.33368336973414081</v>
-      </c>
-      <c r="B13" s="43">
-        <f>VLOOKUP($A11,lookup_helper!$B:$I,MATCH("CommunityType_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
-        <v>9.9496332560479198E-2</v>
-      </c>
-      <c r="C13" s="43">
-        <f>VLOOKUP($A11,lookup_helper!$B:$I,MATCH("REGION_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
-        <v>0.1052465714535069</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="30" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="30" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="30"/>
-    </row>
-    <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="44" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="B49" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="C49" s="36" t="s">
-        <v>241</v>
-      </c>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="30"/>
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="38">
-        <f>VLOOKUP($A48,lookup_helper!$B:$I,MATCH("projval_2016",lookup_helper!$1:$1,0)-1,FALSE)</f>
+      <c r="A50" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="38">
+        <f>VLOOKUP($A50,lookup_helper!$B:$I,MATCH("projval_2016",lookup_helper!$1:$1,0)-1,FALSE)</f>
         <v>1.872619731652339</v>
       </c>
-      <c r="B50" s="38">
-        <f>VLOOKUP($A48,lookup_helper!$B:$I,MATCH("CommunityType_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
+      <c r="B52" s="38">
+        <f>VLOOKUP($A50,lookup_helper!$B:$I,MATCH("CommunityType_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
         <v>7.4149284958128156E-2</v>
       </c>
-      <c r="C50" s="38">
-        <f>VLOOKUP($A48,lookup_helper!$B:$I,MATCH("REGION_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
+      <c r="C52" s="38">
+        <f>VLOOKUP($A50,lookup_helper!$B:$I,MATCH("REGION_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
         <v>7.332683167880813E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="30" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="42" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>232</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>234</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="90" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="46" max="7" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D8A5C7-BD60-4FDC-AB65-BF967BB22109}">
-  <dimension ref="A1:I77"/>
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView view="pageLayout" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="72" t="str">
+        <f>"Project name: "&amp;VLOOKUP("Project name",lookup_helper!$B:$D,3,FALSE)</f>
+        <v>Project name: test_project_YubaCity</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="72" t="str">
+        <f>"Project community type: "&amp;VLOOKUP("Project Community Type",lookup_helper!$B:$D,3,FALSE)</f>
+        <v>Project community type: Small-Town Established Communities</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="62"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -24353,69 +24604,82 @@
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
     </row>
-    <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="63">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="30"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+    </row>
+    <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="55">
         <f>lookup_helper!E81-lookup_helper!D81</f>
         <v>992.65999999999894</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="62" t="s">
-        <v>245</v>
-      </c>
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
-    </row>
-    <row r="50" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="34" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="30" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="64">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="30" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="50" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="B66" s="76"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="76"/>
+      <c r="G66" s="76"/>
+      <c r="H66" s="76"/>
+      <c r="I66" s="69"/>
+    </row>
+    <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="34" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="56">
         <f>lookup_helper!D55</f>
         <v>657</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="30" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="34" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="30" t="s">
-        <v>250</v>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="30" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="34" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="30" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A66:H66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -24425,10 +24689,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD69D76-764D-4B96-9AC3-904BF933FEFC}">
-  <dimension ref="A1:I28"/>
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24442,116 +24707,131 @@
     <col min="9" max="9" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
-        <v>253</v>
-      </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+    <row r="1" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="72" t="str">
+        <f>"Project name: "&amp;VLOOKUP("Project name",lookup_helper!$B:$D,3,FALSE)</f>
+        <v>Project name: test_project_YubaCity</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="72" t="str">
+        <f>"Project community type: "&amp;VLOOKUP("Project Community Type",lookup_helper!$B:$D,3,FALSE)</f>
+        <v>Project community type: Small-Town Established Communities</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="47">
+      <c r="A3" s="62"/>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="75" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="57"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="46">
         <f>VLOOKUP(lookup_helper!B56,lookup_helper!$B:$D,3,FALSE)</f>
         <v>1</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-    </row>
-    <row r="5" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+    </row>
+    <row r="8" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="79" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="57"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="42" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="43">
+        <f>VLOOKUP($A27,lookup_helper!$B:$I,MATCH("projval_2016",lookup_helper!$1:$1,0)-1,FALSE)</f>
+        <v>7.072357263990954E-2</v>
+      </c>
+      <c r="B29" s="43">
+        <f>VLOOKUP($A27,lookup_helper!$B:$I,MATCH("CommunityType_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
+        <v>0.1343871705182399</v>
+      </c>
+      <c r="C29" s="43">
+        <f>VLOOKUP($A27,lookup_helper!$B:$I,MATCH("REGION_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
+        <v>0.13021497769289109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
         <v>252</v>
-      </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="43">
-        <f>VLOOKUP($A24,lookup_helper!$B:$I,MATCH("projval_2016",lookup_helper!$1:$1,0)-1,FALSE)</f>
-        <v>7.072357263990954E-2</v>
-      </c>
-      <c r="B26" s="43">
-        <f>VLOOKUP($A24,lookup_helper!$B:$I,MATCH("CommunityType_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
-        <v>0.1343871705182399</v>
-      </c>
-      <c r="C26" s="43">
-        <f>VLOOKUP($A24,lookup_helper!$B:$I,MATCH("REGION_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
-        <v>0.13021497769289109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
-        <v>257</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -24561,10 +24841,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9476E368-F9A2-47B6-BFA3-FA381B41D8B7}">
-  <dimension ref="A1:H45"/>
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24573,90 +24854,105 @@
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="29" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="45">
+    <row r="1" spans="1:8" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="72" t="str">
+        <f>"Project name: "&amp;VLOOKUP("Project name",lookup_helper!$B:$D,3,FALSE)</f>
+        <v>Project name: test_project_YubaCity</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="70" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="72" t="str">
+        <f>"Project community type: "&amp;VLOOKUP("Project Community Type",lookup_helper!$B:$D,3,FALSE)</f>
+        <v>Project community type: Small-Town Established Communities</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="62"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="29" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="79" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="44">
         <f>VLOOKUP(lookup_helper!B86,lookup_helper!$B:$D,3,FALSE)</f>
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="48" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="49">
-        <f>VLOOKUP($A31,lookup_helper!$B:$I,MATCH("projval_2016",lookup_helper!$1:$1,0)-1,FALSE)</f>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="42" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="30"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="47" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="48">
+        <f>VLOOKUP($A34,lookup_helper!$B:$I,MATCH("projval_2016",lookup_helper!$1:$1,0)-1,FALSE)</f>
         <v>41.285465803940781</v>
       </c>
-      <c r="B33" s="49">
-        <f>VLOOKUP($A31,lookup_helper!$B:$I,MATCH("CommunityType_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
+      <c r="B36" s="48">
+        <f>VLOOKUP($A34,lookup_helper!$B:$I,MATCH("CommunityType_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
         <v>61.135362311155802</v>
       </c>
-      <c r="C33" s="49">
-        <f>VLOOKUP($A31,lookup_helper!$B:$I,MATCH("REGION_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
+      <c r="C36" s="48">
+        <f>VLOOKUP($A34,lookup_helper!$B:$I,MATCH("REGION_2016",lookup_helper!$B$1:$I$1,0),FALSE)</f>
         <v>63.369834818958772</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="30" t="s">
-        <v>264</v>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="30" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/PPA2/ExcelTemplate/PPA_Template_ArterialExp.xlsx
+++ b/PPA2/ExcelTemplate/PPA_Template_ArterialExp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\ProjectLevelPerformanceAssessment\PPAv2\PPA2_0_code\PPA2\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E70CCD0-CB8F-4897-8787-6B4633F51210}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677BA2F7-D04C-4291-858B-EC1EB2245D8E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="781" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="781" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,8 @@
     <sheet name="8SocioEconEquity" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">import!$A$1:$G$116</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">lookup_helper!$A$3:$I$118</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">import!$A$1:$G$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">lookup_helper!$A$3:$I$119</definedName>
     <definedName name="_Hlk20929805" localSheetId="6">'4EconProsperity'!$A$90</definedName>
     <definedName name="_Hlk20929868" localSheetId="9">'7SGR'!$A$4</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1ReduceVMT'!$A$1:$H$46</definedName>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="299">
   <si>
     <t>data_item</t>
   </si>
@@ -994,6 +994,15 @@
   </si>
   <si>
     <t>Equity Indicator 3: Accessibility for people in EJ communities that are near project segment*</t>
+  </si>
+  <si>
+    <t>anyplace</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>jurisdiction</t>
   </si>
 </sst>
 </file>
@@ -1734,7 +1743,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1884,6 +1893,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -18034,11 +18044,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G116"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18084,1163 +18094,1171 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>298</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>60000</v>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>260</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>1.41</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1013.770763052209</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2">
-        <v>1364.000856776242</v>
-      </c>
-      <c r="E9" s="2">
-        <v>3842.410877719361</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2">
-        <v>2709.1952208835341</v>
+        <v>1013.770763052209</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
-        <v>7127.5982283250496</v>
+        <v>1364.000856776242</v>
       </c>
       <c r="E10" s="2">
-        <v>37354.023709342597</v>
+        <v>3842.410877719361</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2">
-        <v>45512.183253012037</v>
+        <v>2709.1952208835341</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
-        <v>115470.05312773889</v>
+        <v>7127.5982283250496</v>
       </c>
       <c r="E11" s="2">
-        <v>475047.24569611409</v>
+        <v>37354.023709342597</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2">
-        <v>6491.7790361445777</v>
+        <v>45512.183253012037</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
-        <v>3942.7378655082048</v>
+        <v>115470.05312773889</v>
       </c>
       <c r="E12" s="2">
-        <v>22213.193547074628</v>
+        <v>475047.24569611409</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2">
-        <v>1.2211646586345379</v>
+        <v>6491.7790361445777</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
-        <v>2.8359657898456958</v>
+        <v>3942.7378655082048</v>
       </c>
       <c r="E13" s="2">
-        <v>4.6382414187566914</v>
+        <v>22213.193547074628</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2">
-        <v>5.2928514056224891</v>
+        <v>1.2211646586345379</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
-        <v>11.725412674938291</v>
+        <v>2.8359657898456958</v>
       </c>
       <c r="E14" s="2">
-        <v>38.186082797940898</v>
+        <v>4.6382414187566914</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2">
-        <v>94.170281124498004</v>
+        <v>5.2928514056224891</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
-        <v>163.7723231043594</v>
+        <v>11.725412674938291</v>
       </c>
       <c r="E15" s="2">
-        <v>492.55290133648589</v>
+        <v>38.186082797940898</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2">
-        <v>10.89180722891566</v>
+        <v>94.170281124498004</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2">
-        <v>6.3673234849555804</v>
+        <v>163.7723231043594</v>
       </c>
       <c r="E16" s="2">
-        <v>19.46065842045931</v>
+        <v>492.55290133648589</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2">
-        <v>7.5514457831325306</v>
+        <v>10.89180722891566</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
-        <v>9.6835892389165004</v>
+        <v>6.3673234849555804</v>
       </c>
       <c r="E17" s="2">
-        <v>17.147198276435411</v>
+        <v>19.46065842045931</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2">
-        <v>19.925100401606429</v>
+        <v>7.5514457831325306</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
-        <v>43.011998510238037</v>
+        <v>9.6835892389165004</v>
       </c>
       <c r="E18" s="2">
-        <v>140.10012353515299</v>
+        <v>17.147198276435411</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2">
-        <v>238.27309236947789</v>
+        <v>19.925100401606429</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2">
-        <v>144.64461021519989</v>
+        <v>43.011998510238037</v>
       </c>
       <c r="E19" s="2">
-        <v>520.32769799543757</v>
+        <v>140.10012353515299</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2">
-        <v>51.080883534136547</v>
+        <v>238.27309236947789</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2">
-        <v>25.241365850741079</v>
+        <v>144.64461021519989</v>
       </c>
       <c r="E20" s="2">
-        <v>77.938922900995635</v>
+        <v>520.32769799543757</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2">
-        <v>56</v>
+        <v>51.080883534136547</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2">
-        <v>1498</v>
+        <v>25.241365850741079</v>
       </c>
       <c r="E21" s="2">
-        <v>55020</v>
+        <v>77.938922900995635</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3">
-        <v>41.285465803940781</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3">
-        <v>61.135362311155802</v>
-      </c>
-      <c r="E22">
-        <v>63.369834818958772</v>
+        <v>19</v>
+      </c>
+      <c r="B22" s="2">
+        <v>56</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2">
+        <v>1498</v>
+      </c>
+      <c r="E22" s="2">
+        <v>55020</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="3">
-        <v>2</v>
+        <v>41.285465803940781</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3">
-        <v>41</v>
+        <v>61.135362311155802</v>
       </c>
       <c r="E23">
-        <v>1113</v>
+        <v>63.369834818958772</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="3">
-        <v>1.474480921569314</v>
+        <v>2</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3">
-        <v>1.6732642555122741</v>
+        <v>41</v>
       </c>
       <c r="E24">
-        <v>1.2819088722919141</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1">
-        <v>3.5714285714285719E-2</v>
+        <v>22</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1.474480921569314</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="1">
-        <v>2.7369826435246991E-2</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2.022900763358779E-2</v>
+      <c r="D25" s="3">
+        <v>1.6732642555122741</v>
+      </c>
+      <c r="E25">
+        <v>1.2819088722919141</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3.5714285714285719E-2</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="1">
+        <v>2.7369826435246991E-2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2.022900763358779E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B27" s="3">
         <v>3</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3">
         <v>202</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>6723</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="4">
-        <v>2.1232525270598122</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4">
-        <v>0.28524510017006321</v>
-      </c>
-      <c r="E27" s="5">
-        <v>0.40140092908768138</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4">
+        <v>2.1232525270598122</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4">
+        <v>0.28524510017006321</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.40140092908768138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B29" s="1">
         <v>5.3571428571428568E-2</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1">
         <v>0.13484646194926569</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E29" s="1">
         <v>0.1221919302071974</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31">
-        <v>7.8499999999999988</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2">
-        <v>1175.845221386116</v>
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>7.8499999999999988</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>145.36370361752071</v>
+        <v>30</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1175.845221386116</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34">
-        <v>0.1236248623319337</v>
+        <v>145.36370361752071</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="5">
-        <v>0.1021114271418558</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5">
-        <v>5.8844134774233253E-2</v>
-      </c>
-      <c r="E35" s="5">
-        <v>1.480071598380431E-2</v>
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>0.1236248623319337</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0.1021114271418558</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5">
+        <v>5.8844134774233253E-2</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1.480071598380431E-2</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="7"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="7"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="7"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="7"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="7"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="7"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="7"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="7"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="7"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="7"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="7"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="7"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B49" s="7"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="7"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B50" s="7"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B51" s="7">
         <v>7460.2525126650989</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B52" s="7">
         <v>63.359266107107317</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B53" s="7">
         <v>39.857150159123393</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B54" s="7">
         <v>1.1478152403679189</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B55" s="7">
         <v>1.162867114075685</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B56" s="7">
         <v>1.323087321541778</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B57" s="7">
         <v>1.2010105753672351</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B58" s="7">
         <v>7460.2525126827086</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B59" s="7">
         <v>66.431990942696686</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B60" s="7">
         <v>54.409268026535017</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B61" s="7">
         <v>1.081819835884438</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B62" s="7">
         <v>1.091630634013671</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B63" s="7">
         <v>1.10910333948567</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B64" s="7">
         <v>1.0947187607200981</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" s="2">
-        <v>1.872619731652339</v>
-      </c>
-      <c r="D64">
-        <v>7.4149284958128156E-2</v>
-      </c>
-      <c r="E64">
-        <v>7.332683167880813E-2</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" s="2">
-        <v>0.33368336973414081</v>
+        <v>1.872619731652339</v>
       </c>
       <c r="D65">
-        <v>9.9496332560479198E-2</v>
+        <v>7.4149284958128156E-2</v>
       </c>
       <c r="E65">
-        <v>0.1052465714535069</v>
+        <v>7.332683167880813E-2</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>119</v>
+        <v>63</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0.33368336973414081</v>
+      </c>
+      <c r="D66">
+        <v>9.9496332560479198E-2</v>
+      </c>
+      <c r="E66">
+        <v>0.1052465714535069</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B67" s="2">
-        <v>1.3624389724527719</v>
+        <v>64</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" s="2">
-        <v>1.475654647382425</v>
+        <v>1.3624389724527719</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" s="2">
-        <v>2.8380936198351971</v>
-      </c>
-      <c r="D69">
-        <v>1.4432109489386511</v>
-      </c>
-      <c r="E69">
-        <v>0.38506745756398192</v>
+        <v>1.475654647382425</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70" s="2">
-        <v>1747</v>
+        <v>2.8380936198351971</v>
+      </c>
+      <c r="D70">
+        <v>1.4432109489386511</v>
+      </c>
+      <c r="E70">
+        <v>0.38506745756398192</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B71" s="2">
-        <v>4050</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B72" s="2">
-        <v>0.69863722615145762</v>
-      </c>
-      <c r="D72">
-        <v>0.34730153421679688</v>
-      </c>
-      <c r="E72">
-        <v>0.3746385676273582</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B73" s="2">
-        <v>1013.770763052209</v>
+        <v>0.69863722615145762</v>
+      </c>
+      <c r="D73">
+        <v>0.34730153421679688</v>
+      </c>
+      <c r="E73">
+        <v>0.3746385676273582</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1013.770763052209</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B75" s="2">
         <v>2709.1952208835341</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B75" s="2">
-        <v>45512.183253012037</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B76" s="2">
-        <v>6491.7790361445777</v>
+        <v>45512.183253012037</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B77" s="2">
-        <v>272.66024096385541</v>
+        <v>6491.7790361445777</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78" s="2">
-        <v>795.25333333333333</v>
+        <v>272.66024096385541</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" s="2">
-        <v>12386.82514056225</v>
+        <v>795.25333333333333</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80" s="2">
+        <v>12386.82514056225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B81" s="2">
         <v>1514.9185542168671</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>79</v>
-      </c>
-      <c r="B81" s="2">
-        <v>1.2211646586345379</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82" s="2">
-        <v>5.2928514056224891</v>
+        <v>1.2211646586345379</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B83" s="2">
-        <v>94.170281124498004</v>
+        <v>5.2928514056224891</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" s="2">
-        <v>10.89180722891566</v>
+        <v>94.170281124498004</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" s="2">
-        <v>7.5514457831325306</v>
+        <v>10.89180722891566</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" s="2">
-        <v>19.925100401606429</v>
+        <v>7.5514457831325306</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" s="2">
-        <v>238.27309236947789</v>
+        <v>19.925100401606429</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88" s="2">
-        <v>51.080883534136547</v>
+        <v>238.27309236947789</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B89" s="2">
-        <v>5797</v>
-      </c>
-      <c r="C89" s="2">
-        <v>6115</v>
+        <v>51.080883534136547</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B90" s="2">
-        <v>1916</v>
+        <v>5797</v>
       </c>
       <c r="C90" s="2">
-        <v>2072.611115859987</v>
+        <v>6115</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91" s="2">
-        <v>1769</v>
+        <v>1916</v>
       </c>
       <c r="C91" s="2">
-        <v>2761.6599999999989</v>
+        <v>2072.611115859987</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92" s="2">
-        <v>657</v>
+        <v>1769</v>
       </c>
       <c r="C92" s="2">
-        <v>796</v>
+        <v>2761.6599999999989</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B93" s="2">
-        <v>125.11</v>
+        <v>657</v>
       </c>
       <c r="C93" s="2">
-        <v>134.03</v>
+        <v>796</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B94" s="2">
-        <v>19593</v>
+        <v>125.11</v>
       </c>
       <c r="C94" s="2">
-        <v>21044</v>
+        <v>134.03</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95" s="2">
-        <v>6806</v>
+        <v>19593</v>
       </c>
       <c r="C95" s="2">
-        <v>7661</v>
+        <v>21044</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B96" s="2">
-        <v>10373</v>
+        <v>6806</v>
       </c>
       <c r="C96" s="2">
-        <v>10477</v>
+        <v>7661</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B97" s="2">
-        <v>184</v>
+        <v>10373</v>
       </c>
       <c r="C97" s="2">
-        <v>294</v>
+        <v>10477</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B98" s="2">
-        <v>381</v>
+        <v>184</v>
       </c>
       <c r="C98" s="2">
-        <v>429</v>
+        <v>294</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B99" s="2">
-        <v>1526</v>
+        <v>381</v>
       </c>
       <c r="C99" s="2">
-        <v>1827</v>
+        <v>429</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>98</v>
-      </c>
-      <c r="B100" s="1">
-        <v>7.072357263990954E-2</v>
-      </c>
-      <c r="C100" s="1">
-        <v>4.853240442342649E-2</v>
-      </c>
-      <c r="D100" s="1">
-        <v>0.1343871705182399</v>
-      </c>
-      <c r="E100" s="1">
-        <v>0.13021497769289109</v>
+        <v>97</v>
+      </c>
+      <c r="B100" s="2">
+        <v>1526</v>
+      </c>
+      <c r="C100" s="2">
+        <v>1827</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>99</v>
-      </c>
-      <c r="B101">
-        <v>0.34736895830143422</v>
-      </c>
-      <c r="C101">
-        <v>0.36404675917126023</v>
+        <v>98</v>
+      </c>
+      <c r="B101" s="1">
+        <v>7.072357263990954E-2</v>
+      </c>
+      <c r="C101" s="1">
+        <v>4.853240442342649E-2</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0.1343871705182399</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0.13021497769289109</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B102">
-        <v>0.5294237737967642</v>
+        <v>0.34736895830143422</v>
       </c>
       <c r="C102">
-        <v>0.49786162326553879</v>
+        <v>0.36404675917126023</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B103">
-        <v>9.3911090695656604E-3</v>
+        <v>0.5294237737967642</v>
       </c>
       <c r="C103">
-        <v>1.397072799847938E-2</v>
+        <v>0.49786162326553879</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B104">
-        <v>1.9445720410350639E-2</v>
+        <v>9.3911090695656604E-3</v>
       </c>
       <c r="C104">
-        <v>2.0385858201862759E-2</v>
+        <v>1.397072799847938E-2</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B105">
-        <v>7.7884958913897823E-2</v>
+        <v>1.9445720410350639E-2</v>
       </c>
       <c r="C105">
-        <v>8.6818095419121846E-2</v>
+        <v>2.0385858201862759E-2</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>104</v>
-      </c>
-      <c r="B106" s="2">
-        <v>3685</v>
-      </c>
-      <c r="C106" s="2">
-        <v>4834.2711158599859</v>
+        <v>103</v>
+      </c>
+      <c r="B106">
+        <v>7.7884958913897823E-2</v>
+      </c>
+      <c r="C106">
+        <v>8.6818095419121846E-2</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>105</v>
-      </c>
-      <c r="B107">
-        <v>13.047842643653521</v>
-      </c>
-      <c r="C107">
-        <v>69.301955921047991</v>
+        <v>104</v>
+      </c>
+      <c r="B107" s="2">
+        <v>3685</v>
+      </c>
+      <c r="C107" s="2">
+        <v>4834.2711158599859</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B108">
-        <v>1.3710956366053659</v>
+        <v>13.047842643653521</v>
       </c>
       <c r="C108">
-        <v>1.3582230858271871</v>
+        <v>69.301955921047991</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>107</v>
-      </c>
-      <c r="B109" s="5">
-        <v>0.68447077769432152</v>
-      </c>
-      <c r="C109" s="5">
-        <v>0.68192319179405259</v>
-      </c>
-      <c r="D109" s="5">
-        <v>0.62622069700880123</v>
-      </c>
-      <c r="E109" s="5">
-        <v>0.99998912009623475</v>
-      </c>
-      <c r="F109" s="5">
-        <v>0.65824713128427348</v>
-      </c>
-      <c r="G109" s="5">
-        <v>0.93085349575304976</v>
+        <v>106</v>
+      </c>
+      <c r="B109">
+        <v>1.3710956366053659</v>
+      </c>
+      <c r="C109">
+        <v>1.3582230858271871</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>108</v>
-      </c>
-      <c r="B110" s="2">
-        <v>286</v>
-      </c>
-      <c r="C110" s="2">
-        <v>286</v>
+        <v>107</v>
+      </c>
+      <c r="B110" s="5">
+        <v>0.68447077769432152</v>
+      </c>
+      <c r="C110" s="5">
+        <v>0.68192319179405259</v>
+      </c>
+      <c r="D110" s="5">
+        <v>0.62622069700880123</v>
+      </c>
+      <c r="E110" s="5">
+        <v>0.99998912009623475</v>
+      </c>
+      <c r="F110" s="5">
+        <v>0.65824713128427348</v>
+      </c>
+      <c r="G110" s="5">
+        <v>0.93085349575304976</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B111" s="2">
-        <v>2616</v>
+        <v>286</v>
       </c>
       <c r="C111" s="2">
-        <v>2720.6935227499798</v>
+        <v>286</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B112" s="2">
-        <v>434</v>
+        <v>2616</v>
       </c>
       <c r="C112" s="2">
-        <v>626.72434688000021</v>
+        <v>2720.6935227499798</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B113" s="2">
-        <v>757</v>
+        <v>434</v>
       </c>
       <c r="C113" s="2">
-        <v>832.51186869999992</v>
+        <v>626.72434688000021</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B114" s="2">
-        <v>27</v>
+        <v>757</v>
       </c>
       <c r="C114" s="2">
-        <v>99.321348959999995</v>
+        <v>832.51186869999992</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B115" s="2">
-        <v>567</v>
+        <v>27</v>
       </c>
       <c r="C115" s="2">
-        <v>583.34135052999795</v>
+        <v>99.321348959999995</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>113</v>
+      </c>
+      <c r="B116" s="2">
+        <v>567</v>
+      </c>
+      <c r="C116" s="2">
+        <v>583.34135052999795</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>114</v>
       </c>
-      <c r="B116" s="6">
+      <c r="B117" s="6">
         <v>145.36370361752071</v>
       </c>
-      <c r="C116" s="6">
+      <c r="C117" s="6">
         <v>120.6959734688332</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G116" xr:uid="{B8AC6F49-A85F-41C2-8B75-187D5827CD3E}"/>
+  <autoFilter ref="A1:G117" xr:uid="{B8AC6F49-A85F-41C2-8B75-187D5827CD3E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19438,15 +19456,15 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="76" t="s">
+      <c r="A86" s="77" t="s">
         <v>242</v>
       </c>
-      <c r="B86" s="76"/>
-      <c r="C86" s="76"/>
-      <c r="D86" s="76"/>
-      <c r="E86" s="76"/>
-      <c r="F86" s="76"/>
-      <c r="G86" s="76"/>
+      <c r="B86" s="77"/>
+      <c r="C86" s="77"/>
+      <c r="D86" s="77"/>
+      <c r="E86" s="77"/>
+      <c r="F86" s="77"/>
+      <c r="G86" s="77"/>
       <c r="H86" s="69"/>
       <c r="I86" s="69"/>
     </row>
@@ -19467,12 +19485,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57897DFD-9194-4D6D-AE68-E488992A8706}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:R118"/>
+  <dimension ref="A1:R119"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomLeft" activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20242,7 +20260,7 @@
         <v>287</v>
       </c>
       <c r="Q19" s="67">
-        <f>(Q18/5280)/D117</f>
+        <f>(Q18/5280)/D118</f>
         <v>1.0020756115251865</v>
       </c>
     </row>
@@ -23636,17 +23654,17 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>2</v>
+        <v>298</v>
       </c>
       <c r="B113" s="29" t="s">
-        <v>131</v>
+        <v>297</v>
       </c>
       <c r="C113" t="s">
         <v>205</v>
       </c>
       <c r="D113" t="str">
         <f>VLOOKUP($A113,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
-        <v>Freeway</v>
+        <v>anyplace</v>
       </c>
       <c r="E113">
         <f>VLOOKUP($A113,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23671,17 +23689,17 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B114" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C114" t="s">
         <v>205</v>
       </c>
-      <c r="D114">
+      <c r="D114" t="str">
         <f>VLOOKUP($A114,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
-        <v>60000</v>
+        <v>Freeway</v>
       </c>
       <c r="E114">
         <f>VLOOKUP($A114,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23706,17 +23724,17 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B115" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C115" t="s">
         <v>205</v>
       </c>
       <c r="D115">
         <f>VLOOKUP($A115,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
-        <v>60</v>
+        <v>60000</v>
       </c>
       <c r="E115">
         <f>VLOOKUP($A115,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23741,17 +23759,17 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B116" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C116" t="s">
         <v>205</v>
       </c>
       <c r="D116">
         <f>VLOOKUP($A116,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E116">
         <f>VLOOKUP($A116,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23776,17 +23794,17 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>260</v>
+        <v>5</v>
       </c>
       <c r="B117" s="29" t="s">
-        <v>261</v>
+        <v>134</v>
       </c>
       <c r="C117" t="s">
         <v>205</v>
       </c>
       <c r="D117">
         <f>VLOOKUP($A117,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
-        <v>1.41</v>
+        <v>65</v>
       </c>
       <c r="E117">
         <f>VLOOKUP($A117,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23811,17 +23829,17 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>6</v>
+        <v>260</v>
       </c>
       <c r="B118" s="29" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
       <c r="C118" t="s">
         <v>205</v>
       </c>
-      <c r="D118" t="str">
+      <c r="D118">
         <f>VLOOKUP($A118,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
-        <v>Small-Town Established Communities</v>
+        <v>1.41</v>
       </c>
       <c r="E118">
         <f>VLOOKUP($A118,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
@@ -23844,9 +23862,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C119" t="s">
+        <v>205</v>
+      </c>
+      <c r="D119" t="str">
+        <f>VLOOKUP($A119,import!$A:$G,MATCH(lookup_helper!D$1,import!$A$1:$G$1,0),FALSE)</f>
+        <v>Small-Town Established Communities</v>
+      </c>
+      <c r="E119">
+        <f>VLOOKUP($A119,import!$A:$G,MATCH(lookup_helper!E$1,import!$A$1:$G$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <f>VLOOKUP($A119,import!$A:$G,MATCH(lookup_helper!F$1,import!$A$1:$G$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <f>VLOOKUP($A119,import!$A:$G,MATCH(lookup_helper!G$1,import!$A$1:$G$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <f>VLOOKUP($A119,import!$A:$G,MATCH(lookup_helper!H$1,import!$A$1:$G$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <f>VLOOKUP($A119,import!$A:$G,MATCH(lookup_helper!I$1,import!$A$1:$G$1,0),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I118">
-    <sortCondition ref="C4:C118"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I119">
+    <sortCondition ref="C4:C119"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23855,10 +23908,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68FC8CB5-C6A7-44CA-A479-35B28693DBAA}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A2:I45"/>
+  <dimension ref="A2:I46"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23870,40 +23923,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="str">
+      <c r="A2" s="75" t="str">
         <f>"Project Performance Assessment Report: "&amp;import!$B$2</f>
         <v>Project Performance Assessment Report: test_project_YubaCity</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="74"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -23916,103 +23969,104 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="73" t="s">
+      <c r="A31" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="B31" s="73"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
       <c r="E31" s="32" t="str">
-        <f>VLOOKUP(A31,lookup_helper!$B$112:$D$118,3,FALSE)</f>
+        <f>VLOOKUP(A31,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>test_project_YubaCity</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="73" t="s">
-        <v>131</v>
+        <v>297</v>
       </c>
       <c r="B32" s="73"/>
       <c r="C32" s="73"/>
       <c r="D32" s="73"/>
       <c r="E32" s="32" t="str">
-        <f>VLOOKUP(A32,lookup_helper!$B$112:$D$118,3,FALSE)</f>
+        <f>VLOOKUP(A32,lookup_helper!$B$112:$D$119,3,FALSE)</f>
+        <v>anyplace</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="32" t="str">
+        <f>VLOOKUP(A33,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>Freeway</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="73" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="33">
-        <f>VLOOKUP(A33,lookup_helper!$B$112:$D$118,3,FALSE)</f>
+      <c r="B34" s="74"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="33">
+        <f>VLOOKUP(A34,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>60000</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="73" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="B34" s="73"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="33">
-        <f>VLOOKUP(A34,lookup_helper!$B$112:$D$118,3,FALSE)</f>
+      <c r="B35" s="74"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="33">
+        <f>VLOOKUP(A35,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="73" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="B35" s="73"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="33">
-        <f>VLOOKUP(A35,lookup_helper!$B$112:$D$118,3,FALSE)</f>
+      <c r="B36" s="74"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="33">
+        <f>VLOOKUP(A36,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="73" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="74" t="s">
         <v>261</v>
       </c>
-      <c r="B36" s="73"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="49">
-        <f>VLOOKUP(A36,lookup_helper!$B$112:$D$118,3,FALSE)</f>
+      <c r="B37" s="74"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="49">
+        <f>VLOOKUP(A37,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>1.41</v>
       </c>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="73" t="s">
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="B37" s="73"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="32" t="str">
-        <f>VLOOKUP(A37,lookup_helper!$B$112:$D$118,3,FALSE)</f>
+      <c r="B38" s="74"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="32" t="str">
+        <f>VLOOKUP(A38,lookup_helper!$B$112:$D$119,3,FALSE)</f>
         <v>Small-Town Established Communities</v>
       </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
@@ -24052,9 +24106,7 @@
       <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="58" t="s">
-        <v>292</v>
-      </c>
+      <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
@@ -24065,9 +24117,8 @@
       <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="59">
-        <f ca="1">NOW()</f>
-        <v>43854.683551504633</v>
+      <c r="A43" s="58" t="s">
+        <v>292</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -24079,7 +24130,10 @@
       <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
+      <c r="A44" s="59">
+        <f ca="1">NOW()</f>
+        <v>43857.560280902777</v>
+      </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -24090,18 +24144,29 @@
       <c r="I44" s="11"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A2:I4"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A2:I4"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A36:D36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -24150,46 +24215,46 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="75" t="s">
+      <c r="A41" s="76" t="s">
         <v>279</v>
       </c>
-      <c r="B41" s="75"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
+      <c r="B41" s="76"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="75"/>
-      <c r="B42" s="75"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="75"/>
+      <c r="A42" s="76"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="75"/>
-      <c r="B43" s="75"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="75"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="75"/>
+      <c r="A43" s="76"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
     </row>
     <row r="44" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="75"/>
-      <c r="B44" s="75"/>
-      <c r="C44" s="75"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="75"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="75"/>
+      <c r="A44" s="76"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -24266,16 +24331,16 @@
       <c r="A13" s="13"/>
     </row>
     <row r="22" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="77" t="s">
         <v>289</v>
       </c>
-      <c r="B22" s="76"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
@@ -24295,16 +24360,16 @@
       <c r="A28" s="13"/>
     </row>
     <row r="41" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="76" t="s">
+      <c r="A41" s="77" t="s">
         <v>290</v>
       </c>
-      <c r="B41" s="76"/>
-      <c r="C41" s="76"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="68" t="s">
@@ -24359,13 +24424,13 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="78" t="s">
         <v>227</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="42" t="s">
@@ -24403,24 +24468,24 @@
       <c r="C10" s="40"/>
     </row>
     <row r="12" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="78" t="s">
         <v>228</v>
       </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
       <c r="I12" s="37"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="79" t="s">
         <v>239</v>
       </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
     </row>
     <row r="15" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
@@ -24634,16 +24699,16 @@
     </row>
     <row r="50" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="76" t="s">
+      <c r="A66" s="77" t="s">
         <v>242</v>
       </c>
-      <c r="B66" s="76"/>
-      <c r="C66" s="76"/>
-      <c r="D66" s="76"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="76"/>
-      <c r="G66" s="76"/>
-      <c r="H66" s="76"/>
+      <c r="B66" s="77"/>
+      <c r="C66" s="77"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="77"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="77"/>
+      <c r="H66" s="77"/>
       <c r="I66" s="69"/>
     </row>
     <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -24728,16 +24793,16 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="76" t="s">
         <v>283</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
       <c r="I5" s="57"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -24766,16 +24831,16 @@
       <c r="I7" s="32"/>
     </row>
     <row r="8" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="80" t="s">
         <v>248</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
       <c r="I8" s="57"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -24875,16 +24940,16 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="29" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="80" t="s">
         <v>254</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
